--- a/results_processing/othello_results.xlsx
+++ b/results_processing/othello_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="58">
   <si>
     <t>wins</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>defeats</t>
+  </si>
+  <si>
+    <t>avg game time</t>
   </si>
   <si>
     <t>score</t>
@@ -38,6 +41,9 @@
     <t>defeats%</t>
   </si>
   <si>
+    <t>no games</t>
+  </si>
+  <si>
     <t>mctsstrategy10000(mapbaseothello_strategy)</t>
   </si>
   <si>
@@ -47,34 +53,40 @@
     <t>mctsstrategy2000(mapbaseothello_strategy)</t>
   </si>
   <si>
+    <t>mctsstrategy10000(mobility_strategy_vs)</t>
+  </si>
+  <si>
+    <t>mctsstrategy10000(mobility_strategy)</t>
+  </si>
+  <si>
+    <t>mctsstrategy5000(mobility_strategy_vs)</t>
+  </si>
+  <si>
     <t>mctsstrategy1000(mapbaseothello_strategy)</t>
+  </si>
+  <si>
+    <t>mctsstrategy5000(mobility_strategy)</t>
   </si>
   <si>
     <t>mcts10000</t>
   </si>
   <si>
-    <t>mcts5000</t>
+    <t>mctsstrategy2000(mobility_strategy_vs)</t>
+  </si>
+  <si>
+    <t>mctsstrategy10000(evaluateothello_strategy)</t>
   </si>
   <si>
     <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy10000(evaluateothello_strategy)</t>
+    <t>mcts5000</t>
   </si>
   <si>
-    <t>mctsstrategy10000(mobility_strategy)</t>
+    <t>mctsstrategy1000(mobility_strategy_vs)</t>
   </si>
   <si>
-    <t>mctsstrategy10000(mobility_strategy_vs)</t>
-  </si>
-  <si>
-    <t>mctsstrategy5000(evaluateothello_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy5000(mobility_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy5000(mobility_strategy_vs)</t>
+    <t>mctsstrategy2000(mobility_strategy)</t>
   </si>
   <si>
     <t>mcts2000</t>
@@ -83,7 +95,10 @@
     <t>mctsstrategies5000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
   </si>
   <si>
-    <t>mcts1000</t>
+    <t>mctsstrategy5000(evaluateothello_strategy)</t>
+  </si>
+  <si>
+    <t>mctsstrategy1000(mobility_strategy)</t>
   </si>
   <si>
     <t>mctsstrategies2000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
@@ -92,10 +107,10 @@
     <t>mctsstrategy2000(evaluateothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy2000(mobility_strategy)</t>
+    <t>mctsrave10000</t>
   </si>
   <si>
-    <t>mctsstrategy2000(mobility_strategy_vs)</t>
+    <t>mcts1000</t>
   </si>
   <si>
     <t>mctsstrategies1000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
@@ -104,37 +119,31 @@
     <t>mctsstrategy1000(evaluateothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy1000(mobility_strategy)</t>
+    <t>mctsrave5000</t>
   </si>
   <si>
-    <t>mctsstrategy1000(mobility_strategy_vs)</t>
-  </si>
-  <si>
-    <t>mctsrave10000</t>
+    <t>mctsrave2000</t>
   </si>
   <si>
     <t>mctsstrategy10000(greedyothello_strategy)</t>
   </si>
   <si>
-    <t>mctsrave5000</t>
+    <t>mctsstrategy5000(greedyothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy5000(greedyothello_strategy)</t>
+    <t>mctsstrategy2000(greedyothello_strategy)</t>
   </si>
   <si>
     <t>mapbaseothello_strategy</t>
   </si>
   <si>
-    <t>mctsrave2000</t>
-  </si>
-  <si>
-    <t>mctsstrategy2000(greedyothello_strategy)</t>
+    <t>mctsstrategy1000(greedyothello_strategy)</t>
   </si>
   <si>
     <t>mctsrave1000</t>
   </si>
   <si>
-    <t>mctsstrategy1000(greedyothello_strategy)</t>
+    <t>mobility_strategy_vs</t>
   </si>
   <si>
     <t>alphabeta10</t>
@@ -153,9 +162,6 @@
   </si>
   <si>
     <t>mobility_strategy</t>
-  </si>
-  <si>
-    <t>mobility_strategy_vs</t>
   </si>
   <si>
     <t>random_strategy</t>
@@ -179,10 +185,10 @@
     <t>0-0-5</t>
   </si>
   <si>
-    <t>0-5-0</t>
+    <t>5-0-0</t>
   </si>
   <si>
-    <t>5-0-0</t>
+    <t>3-1-1</t>
   </si>
 </sst>
 </file>
@@ -540,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,1097 +574,1355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>13132.68</v>
+      </c>
+      <c r="F2">
+        <v>369</v>
+      </c>
+      <c r="G2">
+        <v>87.85714285714286</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>12.14285714285714</v>
+      </c>
+      <c r="J2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>367</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>11295.1</v>
+      </c>
+      <c r="F3">
+        <v>367</v>
+      </c>
+      <c r="G3">
+        <v>87.38095238095238</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12.61904761904762</v>
+      </c>
+      <c r="J3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>346</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>9622.58</v>
+      </c>
+      <c r="F4">
+        <v>346</v>
+      </c>
+      <c r="G4">
+        <v>82.38095238095238</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>17.61904761904762</v>
+      </c>
+      <c r="J4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>344</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>58426.9</v>
+      </c>
+      <c r="F5">
+        <v>344.5</v>
+      </c>
+      <c r="G5">
+        <v>81.9047619047619</v>
+      </c>
+      <c r="H5">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="I5">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="J5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>337</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>44936</v>
+      </c>
+      <c r="F6">
+        <v>337</v>
+      </c>
+      <c r="G6">
+        <v>80.23809523809524</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>19.76190476190476</v>
+      </c>
+      <c r="J6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>337</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>42388.87</v>
+      </c>
+      <c r="F7">
+        <v>337</v>
+      </c>
+      <c r="G7">
+        <v>80.23809523809524</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>19.76190476190476</v>
+      </c>
+      <c r="J7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>317</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>9201.74</v>
+      </c>
+      <c r="F8">
+        <v>317</v>
+      </c>
+      <c r="G8">
+        <v>75.47619047619048</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>24.52380952380952</v>
+      </c>
+      <c r="J8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>305</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>115</v>
+      </c>
+      <c r="E9">
+        <v>33116.84</v>
+      </c>
+      <c r="F9">
+        <v>305</v>
+      </c>
+      <c r="G9">
+        <v>72.61904761904762</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>27.38095238095238</v>
+      </c>
+      <c r="J9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>298</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>122</v>
+      </c>
+      <c r="E10">
+        <v>18337.57</v>
+      </c>
+      <c r="F10">
+        <v>298</v>
+      </c>
+      <c r="G10">
+        <v>70.95238095238095</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>29.04761904761905</v>
+      </c>
+      <c r="J10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>296</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <v>28542.8</v>
+      </c>
+      <c r="F11">
+        <v>296</v>
+      </c>
+      <c r="G11">
+        <v>70.47619047619048</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>29.52380952380953</v>
+      </c>
+      <c r="J11">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>291</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>129</v>
+      </c>
+      <c r="E12">
+        <v>31599.9</v>
+      </c>
+      <c r="F12">
+        <v>291</v>
+      </c>
+      <c r="G12">
+        <v>69.28571428571428</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>30.71428571428572</v>
+      </c>
+      <c r="J12">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>289</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>131</v>
+      </c>
+      <c r="E13">
+        <v>23500.15</v>
+      </c>
+      <c r="F13">
+        <v>289</v>
+      </c>
+      <c r="G13">
+        <v>68.80952380952381</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>31.19047619047619</v>
+      </c>
+      <c r="J13">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>286</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>16358.63</v>
+      </c>
+      <c r="F14">
+        <v>286</v>
+      </c>
+      <c r="G14">
+        <v>68.0952380952381</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>31.9047619047619</v>
+      </c>
+      <c r="J14">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>274</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>146</v>
+      </c>
+      <c r="E15">
+        <v>14358.8</v>
+      </c>
+      <c r="F15">
+        <v>274</v>
+      </c>
+      <c r="G15">
+        <v>65.23809523809524</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>34.76190476190476</v>
+      </c>
+      <c r="J15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>269</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>151</v>
+      </c>
+      <c r="E16">
+        <v>22871.76</v>
+      </c>
+      <c r="F16">
+        <v>269</v>
+      </c>
+      <c r="G16">
+        <v>64.04761904761904</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>35.95238095238095</v>
+      </c>
+      <c r="J16">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>265</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>155</v>
+      </c>
+      <c r="E17">
+        <v>12076.3</v>
+      </c>
+      <c r="F17">
+        <v>265</v>
+      </c>
+      <c r="G17">
+        <v>63.09523809523809</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>36.90476190476191</v>
+      </c>
+      <c r="J17">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>265</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>155</v>
+      </c>
+      <c r="E18">
+        <v>17612.63</v>
+      </c>
+      <c r="F18">
+        <v>265</v>
+      </c>
+      <c r="G18">
+        <v>63.09523809523809</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>36.90476190476191</v>
+      </c>
+      <c r="J18">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>253</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>167</v>
+      </c>
+      <c r="E19">
+        <v>23794.2</v>
+      </c>
+      <c r="F19">
+        <v>253</v>
+      </c>
+      <c r="G19">
+        <v>60.23809523809523</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>39.76190476190476</v>
+      </c>
+      <c r="J19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>249</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>171</v>
+      </c>
+      <c r="E20">
+        <v>16146.22</v>
+      </c>
+      <c r="F20">
+        <v>249</v>
+      </c>
+      <c r="G20">
+        <v>59.28571428571428</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>40.71428571428572</v>
+      </c>
+      <c r="J20">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>238</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>182</v>
+      </c>
+      <c r="E21">
+        <v>13083.09</v>
+      </c>
+      <c r="F21">
+        <v>238</v>
+      </c>
+      <c r="G21">
+        <v>56.66666666666666</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="J21">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>237</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>183</v>
+      </c>
+      <c r="E22">
+        <v>16783.93</v>
+      </c>
+      <c r="F22">
+        <v>237</v>
+      </c>
+      <c r="G22">
+        <v>56.42857142857143</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>43.57142857142857</v>
+      </c>
+      <c r="J22">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>230</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>190</v>
+      </c>
+      <c r="E23">
+        <v>13818.61</v>
+      </c>
+      <c r="F23">
+        <v>230</v>
+      </c>
+      <c r="G23">
+        <v>54.76190476190477</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>45.23809523809524</v>
+      </c>
+      <c r="J23">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>227</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>193</v>
+      </c>
+      <c r="E24">
+        <v>11459.84</v>
+      </c>
+      <c r="F24">
+        <v>227</v>
+      </c>
+      <c r="G24">
+        <v>54.04761904761904</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>45.95238095238095</v>
+      </c>
+      <c r="J24">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>222</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>198</v>
+      </c>
+      <c r="E25">
+        <v>11222.23</v>
+      </c>
+      <c r="F25">
+        <v>222</v>
+      </c>
+      <c r="G25">
+        <v>52.85714285714286</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>47.14285714285714</v>
+      </c>
+      <c r="J25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>214</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>206</v>
+      </c>
+      <c r="E26">
+        <v>12610.75</v>
+      </c>
+      <c r="F26">
+        <v>214</v>
+      </c>
+      <c r="G26">
+        <v>50.95238095238095</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>49.04761904761904</v>
+      </c>
+      <c r="J26">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>199</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>221</v>
+      </c>
+      <c r="E27">
+        <v>16920.42</v>
+      </c>
+      <c r="F27">
+        <v>199</v>
+      </c>
+      <c r="G27">
+        <v>47.38095238095238</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>52.61904761904762</v>
+      </c>
+      <c r="J27">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <v>367.5</v>
-      </c>
-      <c r="F2">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="G2">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H2">
-        <v>8.333333333333332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>344</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3">
+      <c r="B28">
+        <v>154</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>266</v>
+      </c>
+      <c r="E28">
+        <v>12798.68</v>
+      </c>
+      <c r="F28">
+        <v>154</v>
+      </c>
+      <c r="G28">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>63.33333333333333</v>
+      </c>
+      <c r="J28">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>154</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>266</v>
+      </c>
+      <c r="E29">
+        <v>9470.49</v>
+      </c>
+      <c r="F29">
+        <v>154</v>
+      </c>
+      <c r="G29">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>63.33333333333333</v>
+      </c>
+      <c r="J29">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>140</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>279</v>
+      </c>
+      <c r="E30">
+        <v>8553.59</v>
+      </c>
+      <c r="F30">
+        <v>140.5</v>
+      </c>
+      <c r="G30">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="I30">
+        <v>66.42857142857143</v>
+      </c>
+      <c r="J30">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>134</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>286</v>
+      </c>
+      <c r="E31">
+        <v>8395.610000000001</v>
+      </c>
+      <c r="F31">
+        <v>134</v>
+      </c>
+      <c r="G31">
+        <v>31.9047619047619</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>68.0952380952381</v>
+      </c>
+      <c r="J31">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>130</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>290</v>
+      </c>
+      <c r="E32">
+        <v>7844.82</v>
+      </c>
+      <c r="F32">
+        <v>130</v>
+      </c>
+      <c r="G32">
+        <v>30.95238095238095</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>69.04761904761905</v>
+      </c>
+      <c r="J32">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>127</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>293</v>
+      </c>
+      <c r="E33">
+        <v>7839.82</v>
+      </c>
+      <c r="F33">
+        <v>127</v>
+      </c>
+      <c r="G33">
+        <v>30.23809523809524</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>69.76190476190476</v>
+      </c>
+      <c r="J33">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3">
-        <v>361.5</v>
-      </c>
-      <c r="F3">
-        <v>81.9047619047619</v>
-      </c>
-      <c r="G3">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H3">
-        <v>9.761904761904763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>330</v>
-      </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>347.5</v>
-      </c>
-      <c r="F4">
-        <v>78.57142857142857</v>
-      </c>
-      <c r="G4">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H4">
-        <v>13.0952380952381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>314</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>71</v>
-      </c>
-      <c r="E5">
-        <v>331.5</v>
-      </c>
-      <c r="F5">
-        <v>74.76190476190476</v>
-      </c>
-      <c r="G5">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H5">
-        <v>16.90476190476191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>296</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>89</v>
-      </c>
-      <c r="E6">
-        <v>313.5</v>
-      </c>
-      <c r="F6">
-        <v>70.47619047619048</v>
-      </c>
-      <c r="G6">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H6">
-        <v>21.19047619047619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="B34">
+        <v>115</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>305</v>
+      </c>
+      <c r="E34">
+        <v>10667.16</v>
+      </c>
+      <c r="F34">
+        <v>115</v>
+      </c>
+      <c r="G34">
+        <v>27.38095238095238</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>72.61904761904762</v>
+      </c>
+      <c r="J34">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>110</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>310</v>
+      </c>
+      <c r="E35">
+        <v>7216.65</v>
+      </c>
+      <c r="F35">
+        <v>110</v>
+      </c>
+      <c r="G35">
+        <v>26.19047619047619</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>73.80952380952381</v>
+      </c>
+      <c r="J35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>351</v>
+      </c>
+      <c r="E36">
+        <v>7688.93</v>
+      </c>
+      <c r="F36">
+        <v>69</v>
+      </c>
+      <c r="G36">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>83.57142857142857</v>
+      </c>
+      <c r="J36">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>351</v>
+      </c>
+      <c r="E37">
+        <v>8429.43</v>
+      </c>
+      <c r="F37">
+        <v>69</v>
+      </c>
+      <c r="G37">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>83.57142857142857</v>
+      </c>
+      <c r="J37">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>351</v>
+      </c>
+      <c r="E38">
+        <v>8555.25</v>
+      </c>
+      <c r="F38">
+        <v>69</v>
+      </c>
+      <c r="G38">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>83.57142857142857</v>
+      </c>
+      <c r="J38">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>351</v>
+      </c>
+      <c r="E39">
+        <v>8193.9</v>
+      </c>
+      <c r="F39">
+        <v>69</v>
+      </c>
+      <c r="G39">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>83.57142857142857</v>
+      </c>
+      <c r="J39">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>353</v>
+      </c>
+      <c r="E40">
+        <v>8075.04</v>
+      </c>
+      <c r="F40">
+        <v>67</v>
+      </c>
+      <c r="G40">
+        <v>15.95238095238095</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>84.04761904761905</v>
+      </c>
+      <c r="J40">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>374</v>
+      </c>
+      <c r="E41">
+        <v>7968.47</v>
+      </c>
+      <c r="F41">
+        <v>46</v>
+      </c>
+      <c r="G41">
+        <v>10.95238095238095</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>89.04761904761904</v>
+      </c>
+      <c r="J41">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>390</v>
+      </c>
+      <c r="E42">
+        <v>7545.18</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="J42">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>293</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>92</v>
-      </c>
-      <c r="E7">
-        <v>310.5</v>
-      </c>
-      <c r="F7">
-        <v>69.76190476190476</v>
-      </c>
-      <c r="G7">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H7">
-        <v>21.90476190476191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>277</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>108</v>
-      </c>
-      <c r="E8">
-        <v>294.5</v>
-      </c>
-      <c r="F8">
-        <v>65.95238095238095</v>
-      </c>
-      <c r="G8">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H8">
-        <v>25.71428571428571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>269</v>
-      </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>116</v>
-      </c>
-      <c r="E9">
-        <v>286.5</v>
-      </c>
-      <c r="F9">
-        <v>64.04761904761904</v>
-      </c>
-      <c r="G9">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H9">
-        <v>27.61904761904762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>269</v>
-      </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>116</v>
-      </c>
-      <c r="E10">
-        <v>286.5</v>
-      </c>
-      <c r="F10">
-        <v>64.04761904761904</v>
-      </c>
-      <c r="G10">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H10">
-        <v>27.61904761904762</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>269</v>
-      </c>
-      <c r="C11">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>116</v>
-      </c>
-      <c r="E11">
-        <v>286.5</v>
-      </c>
-      <c r="F11">
-        <v>64.04761904761904</v>
-      </c>
-      <c r="G11">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H11">
-        <v>27.61904761904762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>263</v>
-      </c>
-      <c r="C12">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>122</v>
-      </c>
-      <c r="E12">
-        <v>280.5</v>
-      </c>
-      <c r="F12">
-        <v>62.61904761904762</v>
-      </c>
-      <c r="G12">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H12">
-        <v>29.04761904761905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>263</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>122</v>
-      </c>
-      <c r="E13">
-        <v>280.5</v>
-      </c>
-      <c r="F13">
-        <v>62.61904761904762</v>
-      </c>
-      <c r="G13">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H13">
-        <v>29.04761904761905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>263</v>
-      </c>
-      <c r="C14">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>122</v>
-      </c>
-      <c r="E14">
-        <v>280.5</v>
-      </c>
-      <c r="F14">
-        <v>62.61904761904762</v>
-      </c>
-      <c r="G14">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H14">
-        <v>29.04761904761905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>259</v>
-      </c>
-      <c r="C15">
-        <v>35</v>
-      </c>
-      <c r="D15">
-        <v>126</v>
-      </c>
-      <c r="E15">
-        <v>276.5</v>
-      </c>
-      <c r="F15">
-        <v>61.66666666666667</v>
-      </c>
-      <c r="G15">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>242</v>
-      </c>
-      <c r="C16">
-        <v>35</v>
-      </c>
-      <c r="D16">
-        <v>143</v>
-      </c>
-      <c r="E16">
-        <v>259.5</v>
-      </c>
-      <c r="F16">
-        <v>57.61904761904761</v>
-      </c>
-      <c r="G16">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H16">
-        <v>34.04761904761905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>241</v>
-      </c>
-      <c r="C17">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>144</v>
-      </c>
-      <c r="E17">
-        <v>258.5</v>
-      </c>
-      <c r="F17">
-        <v>57.38095238095238</v>
-      </c>
-      <c r="G17">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H17">
-        <v>34.28571428571428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>226</v>
-      </c>
-      <c r="C18">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <v>159</v>
-      </c>
-      <c r="E18">
-        <v>243.5</v>
-      </c>
-      <c r="F18">
-        <v>53.80952380952381</v>
-      </c>
-      <c r="G18">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H18">
-        <v>37.85714285714285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>196</v>
-      </c>
-      <c r="C19">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>189</v>
-      </c>
-      <c r="E19">
-        <v>213.5</v>
-      </c>
-      <c r="F19">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="G19">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H19">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>196</v>
-      </c>
-      <c r="C20">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <v>189</v>
-      </c>
-      <c r="E20">
-        <v>213.5</v>
-      </c>
-      <c r="F20">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="G20">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H20">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>196</v>
-      </c>
-      <c r="C21">
-        <v>35</v>
-      </c>
-      <c r="D21">
-        <v>189</v>
-      </c>
-      <c r="E21">
-        <v>213.5</v>
-      </c>
-      <c r="F21">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="G21">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>192</v>
-      </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>193</v>
-      </c>
-      <c r="E22">
-        <v>209.5</v>
-      </c>
-      <c r="F22">
-        <v>45.71428571428572</v>
-      </c>
-      <c r="G22">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H22">
-        <v>45.95238095238095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>171</v>
-      </c>
-      <c r="C23">
-        <v>35</v>
-      </c>
-      <c r="D23">
-        <v>214</v>
-      </c>
-      <c r="E23">
-        <v>188.5</v>
-      </c>
-      <c r="F23">
-        <v>40.71428571428572</v>
-      </c>
-      <c r="G23">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H23">
-        <v>50.95238095238095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>171</v>
-      </c>
-      <c r="C24">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>214</v>
-      </c>
-      <c r="E24">
-        <v>188.5</v>
-      </c>
-      <c r="F24">
-        <v>40.71428571428572</v>
-      </c>
-      <c r="G24">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H24">
-        <v>50.95238095238095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>171</v>
-      </c>
-      <c r="C25">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>214</v>
-      </c>
-      <c r="E25">
-        <v>188.5</v>
-      </c>
-      <c r="F25">
-        <v>40.71428571428572</v>
-      </c>
-      <c r="G25">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H25">
-        <v>50.95238095238095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>165</v>
-      </c>
-      <c r="C26">
-        <v>35</v>
-      </c>
-      <c r="D26">
-        <v>220</v>
-      </c>
-      <c r="E26">
-        <v>182.5</v>
-      </c>
-      <c r="F26">
-        <v>39.28571428571428</v>
-      </c>
-      <c r="G26">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H26">
-        <v>52.38095238095239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>148</v>
-      </c>
-      <c r="C27">
-        <v>35</v>
-      </c>
-      <c r="D27">
-        <v>237</v>
-      </c>
-      <c r="E27">
-        <v>165.5</v>
-      </c>
-      <c r="F27">
-        <v>35.23809523809524</v>
-      </c>
-      <c r="G27">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H27">
-        <v>56.42857142857143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>142</v>
-      </c>
-      <c r="C28">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>243</v>
-      </c>
-      <c r="E28">
-        <v>159.5</v>
-      </c>
-      <c r="F28">
-        <v>33.80952380952381</v>
-      </c>
-      <c r="G28">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H28">
-        <v>57.85714285714286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>142</v>
-      </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>243</v>
-      </c>
-      <c r="E29">
-        <v>159.5</v>
-      </c>
-      <c r="F29">
-        <v>33.80952380952381</v>
-      </c>
-      <c r="G29">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H29">
-        <v>57.85714285714286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>133</v>
-      </c>
-      <c r="C30">
-        <v>35</v>
-      </c>
-      <c r="D30">
-        <v>252</v>
-      </c>
-      <c r="E30">
-        <v>150.5</v>
-      </c>
-      <c r="F30">
-        <v>31.66666666666666</v>
-      </c>
-      <c r="G30">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>120</v>
-      </c>
-      <c r="C31">
-        <v>35</v>
-      </c>
-      <c r="D31">
-        <v>265</v>
-      </c>
-      <c r="E31">
-        <v>137.5</v>
-      </c>
-      <c r="F31">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="G31">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H31">
-        <v>63.09523809523809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>114</v>
-      </c>
-      <c r="C32">
-        <v>35</v>
-      </c>
-      <c r="D32">
-        <v>271</v>
-      </c>
-      <c r="E32">
-        <v>131.5</v>
-      </c>
-      <c r="F32">
-        <v>27.14285714285714</v>
-      </c>
-      <c r="G32">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H32">
-        <v>64.52380952380953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>113</v>
-      </c>
-      <c r="C33">
-        <v>35</v>
-      </c>
-      <c r="D33">
-        <v>272</v>
-      </c>
-      <c r="E33">
-        <v>130.5</v>
-      </c>
-      <c r="F33">
-        <v>26.90476190476191</v>
-      </c>
-      <c r="G33">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H33">
-        <v>64.76190476190476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>110</v>
-      </c>
-      <c r="C34">
-        <v>35</v>
-      </c>
-      <c r="D34">
-        <v>275</v>
-      </c>
-      <c r="E34">
-        <v>127.5</v>
-      </c>
-      <c r="F34">
-        <v>26.19047619047619</v>
-      </c>
-      <c r="G34">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H34">
-        <v>65.47619047619048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>245</v>
-      </c>
-      <c r="D35">
-        <v>175</v>
-      </c>
-      <c r="E35">
-        <v>122.5</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="H35">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>245</v>
-      </c>
-      <c r="D36">
-        <v>175</v>
-      </c>
-      <c r="E36">
-        <v>122.5</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="H36">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>245</v>
-      </c>
-      <c r="D37">
-        <v>175</v>
-      </c>
-      <c r="E37">
-        <v>122.5</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="H37">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>245</v>
-      </c>
-      <c r="D38">
-        <v>175</v>
-      </c>
-      <c r="E38">
-        <v>122.5</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="H38">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>245</v>
-      </c>
-      <c r="D39">
-        <v>175</v>
-      </c>
-      <c r="E39">
-        <v>122.5</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="H39">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>245</v>
-      </c>
-      <c r="D40">
-        <v>175</v>
-      </c>
-      <c r="E40">
-        <v>122.5</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="H40">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>245</v>
-      </c>
-      <c r="D41">
-        <v>175</v>
-      </c>
-      <c r="E41">
-        <v>122.5</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="H41">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>57</v>
-      </c>
-      <c r="C42">
-        <v>35</v>
-      </c>
-      <c r="D42">
-        <v>328</v>
-      </c>
-      <c r="E42">
-        <v>74.5</v>
-      </c>
-      <c r="F42">
-        <v>13.57142857142857</v>
-      </c>
-      <c r="G42">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="H42">
-        <v>78.0952380952381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>45</v>
-      </c>
       <c r="C43">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="E43">
-        <v>62.5</v>
+        <v>3274.48</v>
       </c>
       <c r="F43">
-        <v>10.71428571428571</v>
+        <v>12</v>
       </c>
       <c r="G43">
-        <v>8.333333333333332</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="H43">
-        <v>80.95238095238095</v>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>97.14285714285714</v>
+      </c>
+      <c r="J43">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -1676,662 +1940,662 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Z3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AF4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AG4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AB5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AE5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -2340,680 +2604,680 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AA6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AC6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Z7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AA8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AF8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Z9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AA9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AF9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AG9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
         <v>53</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Z10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
         <v>53</v>
@@ -3022,251 +3286,251 @@
         <v>53</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Y11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AG11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AO11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s">
         <v>51</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R12" t="s">
         <v>51</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Y12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AF12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
         <v>51</v>
@@ -3275,638 +3539,638 @@
         <v>51</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Z13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AF13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Y14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Z14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AF14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
         <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Y15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AA15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AD15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
         <v>52</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Y16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AC16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
         <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Y17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AF17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -3918,10 +4182,10 @@
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
         <v>52</v>
@@ -3930,546 +4194,546 @@
         <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
         <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S18" t="s">
         <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
         <v>51</v>
       </c>
       <c r="W18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Z18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AA18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AE18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
         <v>53</v>
       </c>
       <c r="O19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
         <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="V19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="X19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Z19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AA19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AI19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
         <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
         <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="X20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Y20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Z20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AA20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AC20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AI20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
         <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" t="s">
         <v>53</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N21" t="s">
         <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P21" t="s">
         <v>51</v>
       </c>
       <c r="Q21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
         <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="W21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="X21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Y21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AA21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AC21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AI21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s">
         <v>52</v>
@@ -4478,10 +4742,10 @@
         <v>52</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
         <v>51</v>
@@ -4490,364 +4754,364 @@
         <v>52</v>
       </c>
       <c r="W22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AA22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AD22" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AF22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="X23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AA23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AC23" t="s">
         <v>51</v>
       </c>
       <c r="AD23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AG23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Z24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AA24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AC24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AD24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AF24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AG24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AK24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AL24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AM24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AN24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L25" t="s">
         <v>53</v>
@@ -4856,248 +5120,248 @@
         <v>53</v>
       </c>
       <c r="N25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="X25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AA25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AC25" t="s">
         <v>51</v>
       </c>
       <c r="AD25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AF25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AG25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AP25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s">
         <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N26" t="s">
         <v>53</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R26" t="s">
         <v>52</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Y26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AA26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AC26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AG26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s">
         <v>51</v>
       </c>
       <c r="AI26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
         <v>53</v>
@@ -5106,138 +5370,138 @@
         <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
         <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AA27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AD27" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AF27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AH27" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AI27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AK27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AM27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AN27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
         <v>53</v>
@@ -5246,317 +5510,317 @@
         <v>53</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z28" t="s">
         <v>52</v>
       </c>
       <c r="AA28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AC28" t="s">
         <v>52</v>
       </c>
       <c r="AD28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AF28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AI28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AQ28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
         <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R29" t="s">
         <v>53</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Y29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AA29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AC29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AD29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AE29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AI29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AP29" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AQ29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
         <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="X30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AA30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AC30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD30" t="s">
         <v>52</v>
@@ -5565,200 +5829,200 @@
         <v>51</v>
       </c>
       <c r="AF30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="s">
         <v>51</v>
       </c>
       <c r="AH30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AK30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AL30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AM30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AN30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AP30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AQ30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P31" t="s">
         <v>53</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
         <v>53</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z31" t="s">
         <v>53</v>
       </c>
       <c r="AA31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AB31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AC31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AE31" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AF31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AH31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AI31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AP31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
         <v>53</v>
@@ -5767,1359 +6031,1359 @@
         <v>53</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O32" t="s">
         <v>53</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
         <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Z32" t="s">
         <v>52</v>
       </c>
       <c r="AA32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AE32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AF32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AK32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AL32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AM32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AN32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AO32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AP32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AQ32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:43">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
         <v>53</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N33" t="s">
         <v>53</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Z33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AA33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AD33" t="s">
         <v>52</v>
       </c>
       <c r="AE33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AF33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AP33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:43">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P34" t="s">
         <v>53</v>
       </c>
       <c r="Q34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="W34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Z34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AD34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AE34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AJ34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AO34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AP34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:43">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD35" t="s">
         <v>54</v>
       </c>
       <c r="AE35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG35" t="s">
         <v>54</v>
       </c>
       <c r="AH35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AJ35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AN35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AO35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AQ35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:43">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AN36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AO36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AP36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AQ36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:43">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AN37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AO37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AP37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AQ37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:43">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AN38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AO38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AP38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AQ38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:43">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AK39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AN39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AO39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AP39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AQ39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AG40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AK40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AN40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AP40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AQ40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:43">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP41" t="s">
         <v>54</v>
       </c>
       <c r="AQ41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:43">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AA42" t="s">
         <v>53</v>
@@ -7128,19 +7392,19 @@
         <v>53</v>
       </c>
       <c r="AC42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AE42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF42" t="s">
         <v>53</v>
       </c>
       <c r="AG42" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s">
         <v>53</v>
@@ -7149,132 +7413,132 @@
         <v>55</v>
       </c>
       <c r="AJ42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AK42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AL42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AM42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AN42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AO42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AP42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AQ42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:43">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB43" t="s">
         <v>53</v>
       </c>
       <c r="AC43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AF43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s">
         <v>55</v>
@@ -7298,10 +7562,10 @@
         <v>55</v>
       </c>
       <c r="AP43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AQ43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/results_processing/othello_results.xlsx
+++ b/results_processing/othello_results.xlsx
@@ -50,10 +50,10 @@
     <t>mctsstrategy5000(mapbaseothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy2000(mapbaseothello_strategy)</t>
+    <t>mctsstrategy10000(mobility_strategy_vs)</t>
   </si>
   <si>
-    <t>mctsstrategy10000(mobility_strategy_vs)</t>
+    <t>mctsstrategy2000(mapbaseothello_strategy)</t>
   </si>
   <si>
     <t>mctsstrategy10000(mobility_strategy)</t>
@@ -74,28 +74,28 @@
     <t>mctsstrategy2000(mobility_strategy_vs)</t>
   </si>
   <si>
-    <t>mctsstrategy10000(evaluateothello_strategy)</t>
-  </si>
-  <si>
     <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
   </si>
   <si>
     <t>mcts5000</t>
   </si>
   <si>
-    <t>mctsstrategy1000(mobility_strategy_vs)</t>
+    <t>mctsstrategy10000(evaluateothello_strategy)</t>
   </si>
   <si>
     <t>mctsstrategy2000(mobility_strategy)</t>
   </si>
   <si>
-    <t>mcts2000</t>
+    <t>mctsstrategy1000(mobility_strategy_vs)</t>
   </si>
   <si>
     <t>mctsstrategies5000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
   </si>
   <si>
     <t>mctsstrategy5000(evaluateothello_strategy)</t>
+  </si>
+  <si>
+    <t>mcts2000</t>
   </si>
   <si>
     <t>mctsstrategy1000(mobility_strategy)</t>
@@ -107,10 +107,10 @@
     <t>mctsstrategy2000(evaluateothello_strategy)</t>
   </si>
   <si>
-    <t>mctsrave10000</t>
+    <t>mcts1000</t>
   </si>
   <si>
-    <t>mcts1000</t>
+    <t>mctsrave10000</t>
   </si>
   <si>
     <t>mctsstrategies1000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
@@ -122,10 +122,10 @@
     <t>mctsrave5000</t>
   </si>
   <si>
-    <t>mctsrave2000</t>
+    <t>mctsstrategy10000(greedyothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy10000(greedyothello_strategy)</t>
+    <t>mctsrave2000</t>
   </si>
   <si>
     <t>mctsstrategy5000(greedyothello_strategy)</t>
@@ -586,28 +586,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>13132.68</v>
+        <v>16822.72</v>
       </c>
       <c r="F2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G2">
-        <v>87.85714285714286</v>
+        <v>88.33333333333333</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.14285714285714</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="J2">
         <v>420</v>
@@ -618,28 +618,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>11295.1</v>
+        <v>15024.42</v>
       </c>
       <c r="F3">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G3">
-        <v>87.38095238095238</v>
+        <v>85.23809523809524</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.61904761904762</v>
+        <v>14.76190476190476</v>
       </c>
       <c r="J3">
         <v>420</v>
@@ -650,25 +650,25 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>74</v>
       </c>
       <c r="E4">
-        <v>9622.58</v>
+        <v>104937.04</v>
       </c>
       <c r="F4">
-        <v>346</v>
+        <v>345.5</v>
       </c>
       <c r="G4">
-        <v>82.38095238095238</v>
+        <v>82.14285714285714</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="I4">
         <v>17.61904761904762</v>
@@ -682,25 +682,25 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>75</v>
       </c>
       <c r="E5">
-        <v>58426.9</v>
+        <v>14375.57</v>
       </c>
       <c r="F5">
-        <v>344.5</v>
+        <v>345</v>
       </c>
       <c r="G5">
-        <v>81.9047619047619</v>
+        <v>82.14285714285714</v>
       </c>
       <c r="H5">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>17.85714285714286</v>
@@ -723,7 +723,7 @@
         <v>83</v>
       </c>
       <c r="E6">
-        <v>44936</v>
+        <v>60811.8</v>
       </c>
       <c r="F6">
         <v>337</v>
@@ -746,28 +746,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7">
-        <v>42388.87</v>
+        <v>50690.01</v>
       </c>
       <c r="F7">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G7">
-        <v>80.23809523809524</v>
+        <v>79.76190476190477</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.76190476190476</v>
+        <v>20.23809523809524</v>
       </c>
       <c r="J7">
         <v>420</v>
@@ -778,28 +778,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E8">
-        <v>9201.74</v>
+        <v>13793.55</v>
       </c>
       <c r="F8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G8">
-        <v>75.47619047619048</v>
+        <v>74.76190476190476</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.52380952380952</v>
+        <v>25.23809523809524</v>
       </c>
       <c r="J8">
         <v>420</v>
@@ -810,28 +810,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E9">
-        <v>33116.84</v>
+        <v>30202.06</v>
       </c>
       <c r="F9">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G9">
-        <v>72.61904761904762</v>
+        <v>73.80952380952381</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.38095238095238</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="J9">
         <v>420</v>
@@ -842,28 +842,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10">
-        <v>18337.57</v>
+        <v>12786.67</v>
       </c>
       <c r="F10">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G10">
-        <v>70.95238095238095</v>
+        <v>71.19047619047619</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.04761904761905</v>
+        <v>28.80952380952381</v>
       </c>
       <c r="J10">
         <v>420</v>
@@ -874,28 +874,28 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>28542.8</v>
+        <v>24738.04</v>
       </c>
       <c r="F11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G11">
-        <v>70.47619047619048</v>
+        <v>70</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.52380952380953</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>420</v>
@@ -906,28 +906,28 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>31599.9</v>
+        <v>30682.6</v>
       </c>
       <c r="F12">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G12">
-        <v>69.28571428571428</v>
+        <v>69.04761904761905</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.71428571428572</v>
+        <v>30.95238095238095</v>
       </c>
       <c r="J12">
         <v>420</v>
@@ -938,28 +938,28 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13">
-        <v>23500.15</v>
+        <v>12002.38</v>
       </c>
       <c r="F13">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G13">
-        <v>68.80952380952381</v>
+        <v>68.57142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.19047619047619</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="J13">
         <v>420</v>
@@ -970,28 +970,28 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E14">
-        <v>16358.63</v>
+        <v>90070.71000000001</v>
       </c>
       <c r="F14">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G14">
-        <v>68.0952380952381</v>
+        <v>65.95238095238095</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.9047619047619</v>
+        <v>34.04761904761905</v>
       </c>
       <c r="J14">
         <v>420</v>
@@ -1002,28 +1002,28 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15">
-        <v>14358.8</v>
+        <v>18296.31</v>
       </c>
       <c r="F15">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G15">
-        <v>65.23809523809524</v>
+        <v>65.47619047619048</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.76190476190476</v>
+        <v>34.52380952380953</v>
       </c>
       <c r="J15">
         <v>420</v>
@@ -1034,28 +1034,28 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E16">
-        <v>22871.76</v>
+        <v>17662.17</v>
       </c>
       <c r="F16">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G16">
-        <v>64.04761904761904</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.95238095238095</v>
+        <v>35</v>
       </c>
       <c r="J16">
         <v>420</v>
@@ -1066,28 +1066,28 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E17">
-        <v>12076.3</v>
+        <v>24111.55</v>
       </c>
       <c r="F17">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G17">
-        <v>63.09523809523809</v>
+        <v>64.76190476190476</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.90476190476191</v>
+        <v>35.23809523809524</v>
       </c>
       <c r="J17">
         <v>420</v>
@@ -1098,28 +1098,28 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E18">
-        <v>17612.63</v>
+        <v>54686.78</v>
       </c>
       <c r="F18">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G18">
-        <v>63.09523809523809</v>
+        <v>63.57142857142857</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.90476190476191</v>
+        <v>36.42857142857142</v>
       </c>
       <c r="J18">
         <v>420</v>
@@ -1130,28 +1130,28 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E19">
-        <v>23794.2</v>
+        <v>10501.52</v>
       </c>
       <c r="F19">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G19">
-        <v>60.23809523809523</v>
+        <v>61.66666666666667</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>39.76190476190476</v>
+        <v>38.33333333333334</v>
       </c>
       <c r="J19">
         <v>420</v>
@@ -1162,28 +1162,28 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E20">
-        <v>16146.22</v>
+        <v>14084.35</v>
       </c>
       <c r="F20">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G20">
-        <v>59.28571428571428</v>
+        <v>58.57142857142858</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>40.71428571428572</v>
+        <v>41.42857142857143</v>
       </c>
       <c r="J20">
         <v>420</v>
@@ -1194,28 +1194,28 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E21">
-        <v>13083.09</v>
+        <v>17883.62</v>
       </c>
       <c r="F21">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G21">
-        <v>56.66666666666666</v>
+        <v>56.42857142857143</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.33333333333334</v>
+        <v>43.57142857142857</v>
       </c>
       <c r="J21">
         <v>420</v>
@@ -1226,28 +1226,28 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E22">
-        <v>16783.93</v>
+        <v>31246.55</v>
       </c>
       <c r="F22">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G22">
-        <v>56.42857142857143</v>
+        <v>55.95238095238096</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>43.57142857142857</v>
+        <v>44.04761904761904</v>
       </c>
       <c r="J22">
         <v>420</v>
@@ -1258,28 +1258,28 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E23">
-        <v>13818.61</v>
+        <v>10594.77</v>
       </c>
       <c r="F23">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G23">
-        <v>54.76190476190477</v>
+        <v>55.23809523809524</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.23809523809524</v>
+        <v>44.76190476190477</v>
       </c>
       <c r="J23">
         <v>420</v>
@@ -1290,28 +1290,28 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E24">
-        <v>11459.84</v>
+        <v>14498.29</v>
       </c>
       <c r="F24">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G24">
-        <v>54.04761904761904</v>
+        <v>55.23809523809524</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.95238095238095</v>
+        <v>44.76190476190477</v>
       </c>
       <c r="J24">
         <v>420</v>
@@ -1322,28 +1322,28 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E25">
-        <v>11222.23</v>
+        <v>17166.14</v>
       </c>
       <c r="F25">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G25">
-        <v>52.85714285714286</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>47.14285714285714</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="J25">
         <v>420</v>
@@ -1354,28 +1354,28 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26">
-        <v>12610.75</v>
+        <v>22141.23</v>
       </c>
       <c r="F26">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G26">
-        <v>50.95238095238095</v>
+        <v>51.19047619047619</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>49.04761904761904</v>
+        <v>48.80952380952381</v>
       </c>
       <c r="J26">
         <v>420</v>
@@ -1386,28 +1386,28 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E27">
-        <v>16920.42</v>
+        <v>12909.88</v>
       </c>
       <c r="F27">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G27">
-        <v>47.38095238095238</v>
+        <v>47.85714285714286</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>52.61904761904762</v>
+        <v>52.14285714285715</v>
       </c>
       <c r="J27">
         <v>420</v>
@@ -1418,28 +1418,28 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E28">
-        <v>12798.68</v>
+        <v>12413.32</v>
       </c>
       <c r="F28">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G28">
-        <v>36.66666666666666</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>63.33333333333333</v>
+        <v>62.85714285714285</v>
       </c>
       <c r="J28">
         <v>420</v>
@@ -1450,28 +1450,28 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E29">
-        <v>9470.49</v>
+        <v>10612.69</v>
       </c>
       <c r="F29">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G29">
-        <v>36.66666666666666</v>
+        <v>35.95238095238095</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>63.33333333333333</v>
+        <v>64.04761904761904</v>
       </c>
       <c r="J29">
         <v>420</v>
@@ -1482,28 +1482,28 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E30">
-        <v>8553.59</v>
+        <v>10465.06</v>
       </c>
       <c r="F30">
-        <v>140.5</v>
+        <v>139.5</v>
       </c>
       <c r="G30">
-        <v>33.33333333333333</v>
+        <v>33.09523809523809</v>
       </c>
       <c r="H30">
         <v>0.2380952380952381</v>
       </c>
       <c r="I30">
-        <v>66.42857142857143</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="J30">
         <v>420</v>
@@ -1514,28 +1514,28 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E31">
-        <v>8395.610000000001</v>
+        <v>10317.41</v>
       </c>
       <c r="F31">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G31">
-        <v>31.9047619047619</v>
+        <v>31.19047619047619</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>68.0952380952381</v>
+        <v>68.80952380952381</v>
       </c>
       <c r="J31">
         <v>420</v>
@@ -1555,7 +1555,7 @@
         <v>290</v>
       </c>
       <c r="E32">
-        <v>7844.82</v>
+        <v>12118.51</v>
       </c>
       <c r="F32">
         <v>130</v>
@@ -1578,28 +1578,28 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E33">
-        <v>7839.82</v>
+        <v>10803.16</v>
       </c>
       <c r="F33">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G33">
-        <v>30.23809523809524</v>
+        <v>29.52380952380953</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>69.76190476190476</v>
+        <v>70.47619047619048</v>
       </c>
       <c r="J33">
         <v>420</v>
@@ -1610,28 +1610,28 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E34">
-        <v>10667.16</v>
+        <v>9025.15</v>
       </c>
       <c r="F34">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G34">
-        <v>27.38095238095238</v>
+        <v>26.42857142857143</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>72.61904761904762</v>
+        <v>73.57142857142858</v>
       </c>
       <c r="J34">
         <v>420</v>
@@ -1651,7 +1651,7 @@
         <v>310</v>
       </c>
       <c r="E35">
-        <v>7216.65</v>
+        <v>8748.92</v>
       </c>
       <c r="F35">
         <v>110</v>
@@ -1674,28 +1674,28 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E36">
-        <v>7688.93</v>
+        <v>11723.94</v>
       </c>
       <c r="F36">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G36">
-        <v>16.42857142857143</v>
+        <v>16.90476190476191</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>83.57142857142857</v>
+        <v>83.0952380952381</v>
       </c>
       <c r="J36">
         <v>420</v>
@@ -1706,28 +1706,28 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E37">
-        <v>8429.43</v>
+        <v>10122.35</v>
       </c>
       <c r="F37">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G37">
-        <v>16.42857142857143</v>
+        <v>16.90476190476191</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>83.57142857142857</v>
+        <v>83.0952380952381</v>
       </c>
       <c r="J37">
         <v>420</v>
@@ -1738,28 +1738,28 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E38">
-        <v>8555.25</v>
+        <v>9839.09</v>
       </c>
       <c r="F38">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G38">
-        <v>16.42857142857143</v>
+        <v>16.90476190476191</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>83.57142857142857</v>
+        <v>83.0952380952381</v>
       </c>
       <c r="J38">
         <v>420</v>
@@ -1770,28 +1770,28 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E39">
-        <v>8193.9</v>
+        <v>11319.61</v>
       </c>
       <c r="F39">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G39">
-        <v>16.42857142857143</v>
+        <v>16.90476190476191</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>83.57142857142857</v>
+        <v>83.0952380952381</v>
       </c>
       <c r="J39">
         <v>420</v>
@@ -1811,7 +1811,7 @@
         <v>353</v>
       </c>
       <c r="E40">
-        <v>8075.04</v>
+        <v>13644.41</v>
       </c>
       <c r="F40">
         <v>67</v>
@@ -1843,7 +1843,7 @@
         <v>374</v>
       </c>
       <c r="E41">
-        <v>7968.47</v>
+        <v>9370.58</v>
       </c>
       <c r="F41">
         <v>46</v>
@@ -1866,28 +1866,28 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E42">
-        <v>7545.18</v>
+        <v>8244.1</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42">
-        <v>7.142857142857142</v>
+        <v>7.380952380952381</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>92.85714285714286</v>
+        <v>92.61904761904762</v>
       </c>
       <c r="J42">
         <v>420</v>
@@ -1907,7 +1907,7 @@
         <v>408</v>
       </c>
       <c r="E43">
-        <v>3274.48</v>
+        <v>5299.6</v>
       </c>
       <c r="F43">
         <v>12</v>
@@ -2101,7 +2101,7 @@
         <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
         <v>56</v>
@@ -2110,16 +2110,16 @@
         <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
         <v>51</v>
@@ -2232,28 +2232,28 @@
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
         <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="s">
         <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
         <v>56</v>
@@ -2265,10 +2265,10 @@
         <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
         <v>56</v>
@@ -2304,16 +2304,16 @@
         <v>56</v>
       </c>
       <c r="AJ3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="s">
         <v>56</v>
@@ -2333,46 +2333,46 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
         <v>51</v>
@@ -2381,16 +2381,16 @@
         <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
         <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
         <v>56</v>
@@ -2405,7 +2405,7 @@
         <v>56</v>
       </c>
       <c r="Z4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AA4" t="s">
         <v>56</v>
@@ -2414,13 +2414,13 @@
         <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AF4" t="s">
         <v>56</v>
@@ -2456,7 +2456,7 @@
         <v>56</v>
       </c>
       <c r="AQ4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2464,37 +2464,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
         <v>51</v>
@@ -2506,22 +2506,22 @@
         <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
         <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V5" t="s">
         <v>56</v>
@@ -2542,16 +2542,16 @@
         <v>56</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AC5" t="s">
         <v>56</v>
       </c>
       <c r="AD5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF5" t="s">
         <v>56</v>
@@ -2587,7 +2587,7 @@
         <v>56</v>
       </c>
       <c r="AQ5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2601,10 +2601,10 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -2625,25 +2625,25 @@
         <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s">
         <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="s">
         <v>51</v>
       </c>
       <c r="R6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S6" t="s">
         <v>51</v>
@@ -2732,10 +2732,10 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -2765,16 +2765,16 @@
         <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q7" t="s">
         <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S7" t="s">
         <v>56</v>
@@ -2783,10 +2783,10 @@
         <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W7" t="s">
         <v>56</v>
@@ -2887,13 +2887,13 @@
         <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
         <v>54</v>
@@ -2902,13 +2902,13 @@
         <v>54</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
         <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
         <v>56</v>
@@ -2917,13 +2917,13 @@
         <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="X8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y8" t="s">
         <v>56</v>
@@ -2935,10 +2935,10 @@
         <v>51</v>
       </c>
       <c r="AB8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="s">
         <v>56</v>
@@ -2994,10 +2994,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -3021,40 +3021,40 @@
         <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
         <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V9" t="s">
         <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Y9" t="s">
         <v>51</v>
@@ -3066,10 +3066,10 @@
         <v>54</v>
       </c>
       <c r="AB9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AC9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="s">
         <v>56</v>
@@ -3125,10 +3125,10 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -3152,10 +3152,10 @@
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
         <v>56</v>
@@ -3164,13 +3164,13 @@
         <v>56</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
         <v>54</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
         <v>51</v>
@@ -3182,10 +3182,10 @@
         <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Y10" t="s">
         <v>51</v>
@@ -3256,10 +3256,10 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -3280,19 +3280,19 @@
         <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q11" t="s">
         <v>54</v>
@@ -3301,22 +3301,22 @@
         <v>54</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
         <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
         <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y11" t="s">
         <v>54</v>
@@ -3381,31 +3381,31 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
         <v>52</v>
@@ -3414,31 +3414,31 @@
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
         <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
         <v>51</v>
@@ -3447,16 +3447,16 @@
         <v>51</v>
       </c>
       <c r="X12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
       </c>
       <c r="AA12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB12" t="s">
         <v>56</v>
@@ -3471,7 +3471,7 @@
         <v>56</v>
       </c>
       <c r="AF12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="s">
         <v>56</v>
@@ -3515,67 +3515,67 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P13" t="s">
         <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X13" t="s">
         <v>51</v>
@@ -3584,10 +3584,10 @@
         <v>56</v>
       </c>
       <c r="Z13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AA13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AB13" t="s">
         <v>56</v>
@@ -3602,13 +3602,13 @@
         <v>56</v>
       </c>
       <c r="AF13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AG13" t="s">
         <v>56</v>
       </c>
       <c r="AH13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="s">
         <v>51</v>
@@ -3643,13 +3643,13 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
@@ -3661,61 +3661,61 @@
         <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
         <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N14" t="s">
         <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Z14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA14" t="s">
         <v>56</v>
@@ -3739,7 +3739,7 @@
         <v>56</v>
       </c>
       <c r="AH14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI14" t="s">
         <v>51</v>
@@ -3774,79 +3774,79 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
         <v>54</v>
       </c>
       <c r="N15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X15" t="s">
         <v>51</v>
       </c>
       <c r="Y15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AA15" t="s">
         <v>56</v>
@@ -3855,16 +3855,16 @@
         <v>56</v>
       </c>
       <c r="AC15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AD15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AE15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AF15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AG15" t="s">
         <v>56</v>
@@ -3905,97 +3905,97 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
         <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N16" t="s">
         <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
         <v>51</v>
       </c>
       <c r="X16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Z16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA16" t="s">
         <v>56</v>
       </c>
       <c r="AB16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC16" t="s">
         <v>56</v>
       </c>
       <c r="AD16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AE16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="s">
         <v>56</v>
@@ -4036,7 +4036,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
@@ -4048,10 +4048,10 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
         <v>54</v>
@@ -4063,70 +4063,70 @@
         <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S17" t="s">
         <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
         <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Z17" t="s">
         <v>54</v>
       </c>
       <c r="AA17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AB17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AC17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD17" t="s">
         <v>56</v>
       </c>
       <c r="AE17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AF17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="s">
         <v>56</v>
@@ -4167,85 +4167,85 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" t="s">
         <v>54</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X18" t="s">
         <v>54</v>
       </c>
       <c r="Y18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AA18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AC18" t="s">
         <v>56</v>
@@ -4257,7 +4257,7 @@
         <v>56</v>
       </c>
       <c r="AF18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AG18" t="s">
         <v>56</v>
@@ -4266,7 +4266,7 @@
         <v>56</v>
       </c>
       <c r="AI18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJ18" t="s">
         <v>56</v>
@@ -4301,43 +4301,43 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s">
         <v>54</v>
@@ -4355,7 +4355,7 @@
         <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V19" t="s">
         <v>52</v>
@@ -4367,28 +4367,28 @@
         <v>51</v>
       </c>
       <c r="Y19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AA19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AB19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AC19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="s">
         <v>56</v>
       </c>
       <c r="AE19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AG19" t="s">
         <v>56</v>
@@ -4397,7 +4397,7 @@
         <v>56</v>
       </c>
       <c r="AI19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AJ19" t="s">
         <v>56</v>
@@ -4435,10 +4435,10 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -4459,7 +4459,7 @@
         <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
@@ -4468,19 +4468,19 @@
         <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
         <v>52</v>
@@ -4560,16 +4560,16 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
@@ -4590,28 +4590,28 @@
         <v>52</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N21" t="s">
         <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
         <v>51</v>
@@ -4620,13 +4620,13 @@
         <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y21" t="s">
         <v>51</v>
@@ -4691,16 +4691,16 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -4709,7 +4709,7 @@
         <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
         <v>54</v>
@@ -4721,19 +4721,19 @@
         <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
         <v>52</v>
       </c>
       <c r="N22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q22" t="s">
         <v>52</v>
@@ -4745,16 +4745,16 @@
         <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
         <v>51</v>
       </c>
       <c r="V22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X22" t="s">
         <v>51</v>
@@ -4763,13 +4763,13 @@
         <v>51</v>
       </c>
       <c r="Z22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AA22" t="s">
         <v>51</v>
       </c>
       <c r="AB22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC22" t="s">
         <v>56</v>
@@ -4778,10 +4778,10 @@
         <v>56</v>
       </c>
       <c r="AE22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AF22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="s">
         <v>56</v>
@@ -4822,16 +4822,16 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -4840,76 +4840,76 @@
         <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M23" t="s">
         <v>55</v>
       </c>
       <c r="N23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q23" t="s">
         <v>54</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S23" t="s">
         <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W23" t="s">
         <v>54</v>
       </c>
       <c r="X23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AB23" t="s">
         <v>56</v>
       </c>
       <c r="AC23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AD23" t="s">
         <v>56</v>
       </c>
       <c r="AE23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AF23" t="s">
         <v>56</v>
@@ -4921,19 +4921,19 @@
         <v>56</v>
       </c>
       <c r="AI23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AK23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AL23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AM23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AN23" t="s">
         <v>56</v>
@@ -4953,13 +4953,13 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
@@ -4971,28 +4971,28 @@
         <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s">
         <v>53</v>
@@ -5004,34 +5004,34 @@
         <v>54</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X24" t="s">
         <v>54</v>
       </c>
       <c r="Y24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AA24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC24" t="s">
         <v>56</v>
@@ -5040,7 +5040,7 @@
         <v>56</v>
       </c>
       <c r="AE24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF24" t="s">
         <v>56</v>
@@ -5052,19 +5052,19 @@
         <v>56</v>
       </c>
       <c r="AI24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AJ24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AK24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AL24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AM24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AN24" t="s">
         <v>56</v>
@@ -5108,7 +5108,7 @@
         <v>52</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
         <v>52</v>
@@ -5117,10 +5117,10 @@
         <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O25" t="s">
         <v>55</v>
@@ -5132,10 +5132,10 @@
         <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
         <v>51</v>
@@ -5144,7 +5144,7 @@
         <v>52</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W25" t="s">
         <v>54</v>
@@ -5156,16 +5156,16 @@
         <v>53</v>
       </c>
       <c r="Z25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AD25" t="s">
         <v>56</v>
@@ -5221,10 +5221,10 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
@@ -5242,49 +5242,49 @@
         <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R26" t="s">
         <v>52</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
         <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X26" t="s">
         <v>51</v>
       </c>
       <c r="Y26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z26" t="s">
         <v>56</v>
@@ -5293,13 +5293,13 @@
         <v>54</v>
       </c>
       <c r="AB26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC26" t="s">
         <v>56</v>
       </c>
       <c r="AD26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AE26" t="s">
         <v>56</v>
@@ -5376,13 +5376,13 @@
         <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
         <v>53</v>
       </c>
       <c r="N27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
@@ -5391,13 +5391,13 @@
         <v>53</v>
       </c>
       <c r="Q27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
         <v>52</v>
@@ -5406,28 +5406,28 @@
         <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y27" t="s">
         <v>53</v>
       </c>
       <c r="Z27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA27" t="s">
         <v>51</v>
       </c>
       <c r="AB27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AC27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD27" t="s">
         <v>56</v>
@@ -5477,94 +5477,94 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s">
         <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L28" t="s">
         <v>53</v>
       </c>
       <c r="M28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N28" t="s">
         <v>55</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R28" t="s">
         <v>55</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
         <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y28" t="s">
         <v>55</v>
       </c>
       <c r="Z28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AC28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AE28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF28" t="s">
         <v>51</v>
@@ -5573,10 +5573,10 @@
         <v>51</v>
       </c>
       <c r="AH28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AJ28" t="s">
         <v>56</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="AO28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AP28" t="s">
         <v>56</v>
@@ -5608,55 +5608,55 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
         <v>55</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L29" t="s">
         <v>55</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q29" t="s">
         <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S29" t="s">
         <v>55</v>
@@ -5665,37 +5665,37 @@
         <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Y29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AE29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF29" t="s">
         <v>51</v>
@@ -5704,10 +5704,10 @@
         <v>51</v>
       </c>
       <c r="AH29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJ29" t="s">
         <v>56</v>
@@ -5725,7 +5725,7 @@
         <v>56</v>
       </c>
       <c r="AO29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AP29" t="s">
         <v>56</v>
@@ -5745,10 +5745,10 @@
         <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
@@ -5772,25 +5772,25 @@
         <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R30" t="s">
         <v>53</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
         <v>53</v>
@@ -5799,7 +5799,7 @@
         <v>53</v>
       </c>
       <c r="V30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W30" t="s">
         <v>53</v>
@@ -5817,10 +5817,10 @@
         <v>55</v>
       </c>
       <c r="AB30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD30" t="s">
         <v>52</v>
@@ -5876,10 +5876,10 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
@@ -5909,19 +5909,19 @@
         <v>55</v>
       </c>
       <c r="O31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
         <v>53</v>
@@ -5939,7 +5939,7 @@
         <v>55</v>
       </c>
       <c r="Y31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z31" t="s">
         <v>53</v>
@@ -5948,10 +5948,10 @@
         <v>53</v>
       </c>
       <c r="AB31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD31" t="s">
         <v>52</v>
@@ -6034,25 +6034,25 @@
         <v>53</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N32" t="s">
         <v>55</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" t="s">
         <v>55</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T32" t="s">
         <v>53</v>
@@ -6061,13 +6061,13 @@
         <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Y32" t="s">
         <v>54</v>
@@ -6079,10 +6079,10 @@
         <v>55</v>
       </c>
       <c r="AB32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD32" t="s">
         <v>54</v>
@@ -6165,16 +6165,16 @@
         <v>55</v>
       </c>
       <c r="M33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q33" t="s">
         <v>55</v>
@@ -6183,7 +6183,7 @@
         <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
         <v>55</v>
@@ -6204,16 +6204,16 @@
         <v>53</v>
       </c>
       <c r="Z33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="s">
         <v>52</v>
       </c>
       <c r="AB33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD33" t="s">
         <v>52</v>
@@ -6302,10 +6302,10 @@
         <v>55</v>
       </c>
       <c r="O34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q34" t="s">
         <v>55</v>
@@ -6326,10 +6326,10 @@
         <v>55</v>
       </c>
       <c r="W34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y34" t="s">
         <v>53</v>
@@ -6365,16 +6365,16 @@
         <v>52</v>
       </c>
       <c r="AJ34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AK34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AL34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AM34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AN34" t="s">
         <v>51</v>
@@ -6427,10 +6427,10 @@
         <v>55</v>
       </c>
       <c r="M35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O35" t="s">
         <v>55</v>
@@ -6439,13 +6439,13 @@
         <v>55</v>
       </c>
       <c r="Q35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R35" t="s">
         <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
         <v>55</v>
@@ -6472,10 +6472,10 @@
         <v>53</v>
       </c>
       <c r="AB35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AC35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD35" t="s">
         <v>54</v>
@@ -6546,7 +6546,7 @@
         <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J36" t="s">
         <v>55</v>
@@ -6561,7 +6561,7 @@
         <v>55</v>
       </c>
       <c r="N36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O36" t="s">
         <v>55</v>
@@ -6677,7 +6677,7 @@
         <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J37" t="s">
         <v>55</v>
@@ -6692,7 +6692,7 @@
         <v>55</v>
       </c>
       <c r="N37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O37" t="s">
         <v>55</v>
@@ -6808,7 +6808,7 @@
         <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J38" t="s">
         <v>55</v>
@@ -6823,7 +6823,7 @@
         <v>55</v>
       </c>
       <c r="N38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O38" t="s">
         <v>55</v>
@@ -6939,7 +6939,7 @@
         <v>53</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J39" t="s">
         <v>55</v>
@@ -6954,7 +6954,7 @@
         <v>55</v>
       </c>
       <c r="N39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O39" t="s">
         <v>55</v>
@@ -7055,10 +7055,10 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
@@ -7127,10 +7127,10 @@
         <v>53</v>
       </c>
       <c r="AB40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AC40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD40" t="s">
         <v>55</v>
@@ -7225,13 +7225,13 @@
         <v>55</v>
       </c>
       <c r="Q41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R41" t="s">
         <v>55</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T41" t="s">
         <v>55</v>
@@ -7243,10 +7243,10 @@
         <v>55</v>
       </c>
       <c r="W41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y41" t="s">
         <v>55</v>
@@ -7258,10 +7258,10 @@
         <v>55</v>
       </c>
       <c r="AB41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD41" t="s">
         <v>55</v>
@@ -7383,16 +7383,16 @@
         <v>55</v>
       </c>
       <c r="Z42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA42" t="s">
         <v>53</v>
       </c>
       <c r="AB42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AD42" t="s">
         <v>55</v>
@@ -7520,10 +7520,10 @@
         <v>55</v>
       </c>
       <c r="AB43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AD43" t="s">
         <v>55</v>

--- a/results_processing/othello_results.xlsx
+++ b/results_processing/othello_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="67">
   <si>
     <t>wins</t>
   </si>
@@ -44,16 +44,10 @@
     <t>no games</t>
   </si>
   <si>
-    <t>mctsstrategy10000(mapbaseothello_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy5000(mapbaseothello_strategy)</t>
-  </si>
-  <si>
     <t>mctsstrategy10000(mobility_strategy_vs)</t>
   </si>
   <si>
-    <t>mctsstrategy2000(mapbaseothello_strategy)</t>
+    <t>mctsstrategy10000(mapbaseothello_strategy)</t>
   </si>
   <si>
     <t>mctsstrategy10000(mobility_strategy)</t>
@@ -62,25 +56,19 @@
     <t>mctsstrategy5000(mobility_strategy_vs)</t>
   </si>
   <si>
-    <t>mctsstrategy1000(mapbaseothello_strategy)</t>
+    <t>mctsstrategy5000(mapbaseothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy5000(mobility_strategy)</t>
-  </si>
-  <si>
-    <t>mcts10000</t>
+    <t>mctsstrategy2000(mapbaseothello_strategy)</t>
   </si>
   <si>
     <t>mctsstrategy2000(mobility_strategy_vs)</t>
   </si>
   <si>
-    <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
+    <t>mctsstrategy1000(mapbaseothello_strategy)</t>
   </si>
   <si>
-    <t>mcts5000</t>
-  </si>
-  <si>
-    <t>mctsstrategy10000(evaluateothello_strategy)</t>
+    <t>mctsstrategy5000(mobility_strategy)</t>
   </si>
   <si>
     <t>mctsstrategy2000(mobility_strategy)</t>
@@ -89,7 +77,22 @@
     <t>mctsstrategy1000(mobility_strategy_vs)</t>
   </si>
   <si>
+    <t>mcts10000</t>
+  </si>
+  <si>
+    <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
+  </si>
+  <si>
     <t>mctsstrategies5000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
+  </si>
+  <si>
+    <t>mcts5000</t>
+  </si>
+  <si>
+    <t>mctsstrategy1000(mobility_strategy)</t>
+  </si>
+  <si>
+    <t>mctsstrategy10000(evaluateothello_strategy)</t>
   </si>
   <si>
     <t>mctsstrategy5000(evaluateothello_strategy)</t>
@@ -98,19 +101,19 @@
     <t>mcts2000</t>
   </si>
   <si>
-    <t>mctsstrategy1000(mobility_strategy)</t>
+    <t>mctsrave10000</t>
+  </si>
+  <si>
+    <t>mcts1000</t>
   </si>
   <si>
     <t>mctsstrategies2000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy2000(evaluateothello_strategy)</t>
+    <t>mctsrave5000</t>
   </si>
   <si>
-    <t>mcts1000</t>
-  </si>
-  <si>
-    <t>mctsrave10000</t>
+    <t>mctsstrategy2000(evaluateothello_strategy)</t>
   </si>
   <si>
     <t>mctsstrategies1000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
@@ -119,31 +122,34 @@
     <t>mctsstrategy1000(evaluateothello_strategy)</t>
   </si>
   <si>
-    <t>mctsrave5000</t>
+    <t>mctsrave2000</t>
+  </si>
+  <si>
+    <t>mctsrave1000</t>
   </si>
   <si>
     <t>mctsstrategy10000(greedyothello_strategy)</t>
   </si>
   <si>
-    <t>mctsrave2000</t>
+    <t>mctsstrategy5000(greedyothello_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategy5000(greedyothello_strategy)</t>
+    <t>mapbaseothello_strategy</t>
   </si>
   <si>
     <t>mctsstrategy2000(greedyothello_strategy)</t>
   </si>
   <si>
-    <t>mapbaseothello_strategy</t>
-  </si>
-  <si>
     <t>mctsstrategy1000(greedyothello_strategy)</t>
   </si>
   <si>
-    <t>mctsrave1000</t>
+    <t>mobility_strategy_vs</t>
   </si>
   <si>
-    <t>mobility_strategy_vs</t>
+    <t>mobility_strategy</t>
+  </si>
+  <si>
+    <t>evaluateothello_strategy</t>
   </si>
   <si>
     <t>alphabeta10</t>
@@ -158,12 +164,6 @@
     <t>alphabeta8</t>
   </si>
   <si>
-    <t>evaluateothello_strategy</t>
-  </si>
-  <si>
-    <t>mobility_strategy</t>
-  </si>
-  <si>
     <t>random_strategy</t>
   </si>
   <si>
@@ -173,22 +173,49 @@
     <t>4-0-1</t>
   </si>
   <si>
-    <t>2-0-3</t>
+    <t>2-1-2</t>
   </si>
   <si>
     <t>1-0-4</t>
   </si>
   <si>
-    <t>3-0-2</t>
+    <t>2-0-3</t>
+  </si>
+  <si>
+    <t>1-1-3</t>
   </si>
   <si>
     <t>0-0-5</t>
+  </si>
+  <si>
+    <t>0-1-4</t>
+  </si>
+  <si>
+    <t>3-0-2</t>
   </si>
   <si>
     <t>5-0-0</t>
   </si>
   <si>
     <t>3-1-1</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>0-2-3</t>
+  </si>
+  <si>
+    <t>2-2-1</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>1-2-2</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
 </sst>
 </file>
@@ -586,28 +613,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>16822.72</v>
+        <v>2613.32</v>
       </c>
       <c r="F2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="G2">
-        <v>88.33333333333333</v>
+        <v>90</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I2">
-        <v>11.66666666666667</v>
+        <v>9.047619047619047</v>
       </c>
       <c r="J2">
         <v>420</v>
@@ -618,28 +645,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>15024.42</v>
+        <v>535.73</v>
       </c>
       <c r="F3">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="G3">
-        <v>85.23809523809524</v>
+        <v>87.85714285714286</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="I3">
-        <v>14.76190476190476</v>
+        <v>10.23809523809524</v>
       </c>
       <c r="J3">
         <v>420</v>
@@ -650,28 +677,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>104937.04</v>
+        <v>1710.28</v>
       </c>
       <c r="F4">
-        <v>345.5</v>
+        <v>357</v>
       </c>
       <c r="G4">
-        <v>82.14285714285714</v>
+        <v>84.76190476190476</v>
       </c>
       <c r="H4">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="I4">
-        <v>17.61904761904762</v>
+        <v>14.76190476190476</v>
       </c>
       <c r="J4">
         <v>420</v>
@@ -682,28 +709,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>14375.57</v>
+        <v>1332.53</v>
       </c>
       <c r="F5">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G5">
-        <v>82.14285714285714</v>
+        <v>84.52380952380952</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="I5">
-        <v>17.85714285714286</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>420</v>
@@ -714,28 +741,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>60811.8</v>
+        <v>420.74</v>
       </c>
       <c r="F6">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="G6">
-        <v>80.23809523809524</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="I6">
-        <v>19.76190476190476</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="J6">
         <v>420</v>
@@ -746,28 +773,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>50690.01</v>
+        <v>393.96</v>
       </c>
       <c r="F7">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G7">
-        <v>79.76190476190477</v>
+        <v>80.47619047619048</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="I7">
-        <v>20.23809523809524</v>
+        <v>17.61904761904762</v>
       </c>
       <c r="J7">
         <v>420</v>
@@ -778,28 +805,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E8">
-        <v>13793.55</v>
+        <v>844.08</v>
       </c>
       <c r="F8">
-        <v>314</v>
+        <v>333.5</v>
       </c>
       <c r="G8">
-        <v>74.76190476190476</v>
+        <v>78.80952380952381</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I8">
-        <v>25.23809523809524</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <v>420</v>
@@ -810,28 +837,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>30202.06</v>
+        <v>334.98</v>
       </c>
       <c r="F9">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="G9">
-        <v>73.80952380952381</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I9">
-        <v>26.19047619047619</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>420</v>
@@ -842,28 +869,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E10">
-        <v>12786.67</v>
+        <v>992.24</v>
       </c>
       <c r="F10">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="G10">
-        <v>71.19047619047619</v>
+        <v>75.95238095238095</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="I10">
-        <v>28.80952380952381</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="J10">
         <v>420</v>
@@ -874,28 +901,28 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E11">
-        <v>24738.04</v>
+        <v>580.21</v>
       </c>
       <c r="F11">
-        <v>294</v>
+        <v>298.5</v>
       </c>
       <c r="G11">
-        <v>70</v>
+        <v>70.23809523809523</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I11">
-        <v>30</v>
+        <v>28.09523809523809</v>
       </c>
       <c r="J11">
         <v>420</v>
@@ -906,28 +933,28 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E12">
-        <v>30682.6</v>
+        <v>598.08</v>
       </c>
       <c r="F12">
-        <v>290</v>
+        <v>296.5</v>
       </c>
       <c r="G12">
-        <v>69.04761904761905</v>
+        <v>69.52380952380952</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="I12">
-        <v>30.95238095238095</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="J12">
         <v>420</v>
@@ -938,28 +965,28 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>12002.38</v>
+        <v>484.98</v>
       </c>
       <c r="F13">
-        <v>288</v>
+        <v>287.5</v>
       </c>
       <c r="G13">
-        <v>68.57142857142857</v>
+        <v>67.38095238095238</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="I13">
-        <v>31.42857142857143</v>
+        <v>30.47619047619048</v>
       </c>
       <c r="J13">
         <v>420</v>
@@ -970,28 +997,28 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14">
-        <v>90070.71000000001</v>
+        <v>1140</v>
       </c>
       <c r="F14">
         <v>277</v>
       </c>
       <c r="G14">
-        <v>65.95238095238095</v>
+        <v>65.47619047619048</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I14">
-        <v>34.04761904761905</v>
+        <v>33.57142857142857</v>
       </c>
       <c r="J14">
         <v>420</v>
@@ -1002,28 +1029,28 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15">
-        <v>18296.31</v>
+        <v>753.83</v>
       </c>
       <c r="F15">
-        <v>275</v>
+        <v>274.5</v>
       </c>
       <c r="G15">
-        <v>65.47619047619048</v>
+        <v>65</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I15">
-        <v>34.52380952380953</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="J15">
         <v>420</v>
@@ -1034,28 +1061,28 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E16">
-        <v>17662.17</v>
+        <v>627.46</v>
       </c>
       <c r="F16">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G16">
-        <v>65</v>
+        <v>62.85714285714285</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I16">
-        <v>35</v>
+        <v>36.19047619047619</v>
       </c>
       <c r="J16">
         <v>420</v>
@@ -1066,28 +1093,28 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E17">
-        <v>24111.55</v>
+        <v>467.84</v>
       </c>
       <c r="F17">
-        <v>272</v>
+        <v>264.5</v>
       </c>
       <c r="G17">
-        <v>64.76190476190476</v>
+        <v>62.14285714285715</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I17">
-        <v>35.23809523809524</v>
+        <v>36.19047619047619</v>
       </c>
       <c r="J17">
         <v>420</v>
@@ -1098,28 +1125,28 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E18">
-        <v>54686.78</v>
+        <v>2961.31</v>
       </c>
       <c r="F18">
-        <v>267</v>
+        <v>261.5</v>
       </c>
       <c r="G18">
-        <v>63.57142857142857</v>
+        <v>61.66666666666667</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I18">
-        <v>36.42857142857142</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="J18">
         <v>420</v>
@@ -1130,28 +1157,28 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E19">
-        <v>10501.52</v>
+        <v>1759.26</v>
       </c>
       <c r="F19">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G19">
-        <v>61.66666666666667</v>
+        <v>59.52380952380953</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="I19">
-        <v>38.33333333333334</v>
+        <v>38.57142857142858</v>
       </c>
       <c r="J19">
         <v>420</v>
@@ -1162,28 +1189,28 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E20">
-        <v>14084.35</v>
+        <v>394.27</v>
       </c>
       <c r="F20">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G20">
-        <v>58.57142857142858</v>
+        <v>58.80952380952381</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I20">
-        <v>41.42857142857143</v>
+        <v>40.23809523809524</v>
       </c>
       <c r="J20">
         <v>420</v>
@@ -1194,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E21">
-        <v>17883.62</v>
+        <v>508.07</v>
       </c>
       <c r="F21">
-        <v>237</v>
+        <v>238.5</v>
       </c>
       <c r="G21">
-        <v>56.42857142857143</v>
+        <v>56.19047619047619</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I21">
-        <v>43.57142857142857</v>
+        <v>42.61904761904762</v>
       </c>
       <c r="J21">
         <v>420</v>
@@ -1226,25 +1253,25 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>185</v>
       </c>
       <c r="E22">
-        <v>31246.55</v>
+        <v>340.92</v>
       </c>
       <c r="F22">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G22">
-        <v>55.95238095238096</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I22">
         <v>44.04761904761904</v>
@@ -1258,28 +1285,28 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E23">
-        <v>10594.77</v>
+        <v>521.12</v>
       </c>
       <c r="F23">
-        <v>232</v>
+        <v>232.5</v>
       </c>
       <c r="G23">
-        <v>55.23809523809524</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="I23">
-        <v>44.76190476190477</v>
+        <v>43.57142857142857</v>
       </c>
       <c r="J23">
         <v>420</v>
@@ -1290,28 +1317,28 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E24">
-        <v>14498.29</v>
+        <v>432.37</v>
       </c>
       <c r="F24">
-        <v>232</v>
+        <v>225.5</v>
       </c>
       <c r="G24">
-        <v>55.23809523809524</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I24">
-        <v>44.76190476190477</v>
+        <v>45.95238095238095</v>
       </c>
       <c r="J24">
         <v>420</v>
@@ -1322,28 +1349,28 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E25">
-        <v>17166.14</v>
+        <v>1097.19</v>
       </c>
       <c r="F25">
         <v>220</v>
       </c>
       <c r="G25">
-        <v>52.38095238095239</v>
+        <v>51.42857142857142</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="I25">
-        <v>47.61904761904761</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="J25">
         <v>420</v>
@@ -1354,28 +1381,28 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E26">
-        <v>22141.23</v>
+        <v>481</v>
       </c>
       <c r="F26">
-        <v>215</v>
+        <v>219.5</v>
       </c>
       <c r="G26">
-        <v>51.19047619047619</v>
+        <v>51.90476190476191</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I26">
-        <v>48.80952380952381</v>
+        <v>47.38095238095238</v>
       </c>
       <c r="J26">
         <v>420</v>
@@ -1386,28 +1413,28 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E27">
-        <v>12909.88</v>
+        <v>627.98</v>
       </c>
       <c r="F27">
-        <v>201</v>
+        <v>205.5</v>
       </c>
       <c r="G27">
-        <v>47.85714285714286</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I27">
-        <v>52.14285714285715</v>
+        <v>50.47619047619047</v>
       </c>
       <c r="J27">
         <v>420</v>
@@ -1418,28 +1445,28 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E28">
-        <v>12413.32</v>
+        <v>350.95</v>
       </c>
       <c r="F28">
-        <v>156</v>
+        <v>172.5</v>
       </c>
       <c r="G28">
-        <v>37.14285714285715</v>
+        <v>40.23809523809524</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I28">
-        <v>62.85714285714285</v>
+        <v>58.0952380952381</v>
       </c>
       <c r="J28">
         <v>420</v>
@@ -1450,28 +1477,28 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E29">
-        <v>10612.69</v>
+        <v>338.15</v>
       </c>
       <c r="F29">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G29">
-        <v>35.95238095238095</v>
+        <v>32.61904761904762</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I29">
-        <v>64.04761904761904</v>
+        <v>65.95238095238095</v>
       </c>
       <c r="J29">
         <v>420</v>
@@ -1482,28 +1509,28 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E30">
-        <v>10465.06</v>
+        <v>376.69</v>
       </c>
       <c r="F30">
-        <v>139.5</v>
+        <v>126.5</v>
       </c>
       <c r="G30">
-        <v>33.09523809523809</v>
+        <v>29.28571428571429</v>
       </c>
       <c r="H30">
-        <v>0.2380952380952381</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I30">
-        <v>66.66666666666666</v>
+        <v>69.04761904761905</v>
       </c>
       <c r="J30">
         <v>420</v>
@@ -1514,28 +1541,28 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E31">
-        <v>10317.41</v>
+        <v>351.97</v>
       </c>
       <c r="F31">
-        <v>131</v>
+        <v>120.5</v>
       </c>
       <c r="G31">
-        <v>31.19047619047619</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I31">
-        <v>68.80952380952381</v>
+        <v>70.95238095238095</v>
       </c>
       <c r="J31">
         <v>420</v>
@@ -1546,28 +1573,28 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E32">
-        <v>12118.51</v>
+        <v>344.98</v>
       </c>
       <c r="F32">
-        <v>130</v>
+        <v>112.5</v>
       </c>
       <c r="G32">
-        <v>30.95238095238095</v>
+        <v>25.47619047619047</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="I32">
-        <v>69.04761904761905</v>
+        <v>71.9047619047619</v>
       </c>
       <c r="J32">
         <v>420</v>
@@ -1578,28 +1605,28 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E33">
-        <v>10803.16</v>
+        <v>415.33</v>
       </c>
       <c r="F33">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G33">
-        <v>29.52380952380953</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I33">
-        <v>70.47619047619048</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="J33">
         <v>420</v>
@@ -1610,28 +1637,28 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E34">
-        <v>9025.15</v>
+        <v>319.52</v>
       </c>
       <c r="F34">
-        <v>111</v>
+        <v>102.5</v>
       </c>
       <c r="G34">
-        <v>26.42857142857143</v>
+        <v>24.04761904761905</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I34">
-        <v>73.57142857142858</v>
+        <v>75.23809523809524</v>
       </c>
       <c r="J34">
         <v>420</v>
@@ -1642,28 +1669,28 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E35">
-        <v>8748.92</v>
+        <v>317.33</v>
       </c>
       <c r="F35">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G35">
-        <v>26.19047619047619</v>
+        <v>20.95238095238095</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I35">
-        <v>73.80952380952381</v>
+        <v>72.38095238095238</v>
       </c>
       <c r="J35">
         <v>420</v>
@@ -1674,28 +1701,28 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E36">
-        <v>11723.94</v>
+        <v>331.11</v>
       </c>
       <c r="F36">
-        <v>71</v>
+        <v>62.5</v>
       </c>
       <c r="G36">
-        <v>16.90476190476191</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I36">
-        <v>83.0952380952381</v>
+        <v>84.52380952380952</v>
       </c>
       <c r="J36">
         <v>420</v>
@@ -1706,28 +1733,28 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E37">
-        <v>10122.35</v>
+        <v>362.09</v>
       </c>
       <c r="F37">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G37">
-        <v>16.90476190476191</v>
+        <v>14.52380952380953</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>83.0952380952381</v>
+        <v>85.47619047619047</v>
       </c>
       <c r="J37">
         <v>420</v>
@@ -1738,28 +1765,28 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E38">
-        <v>9839.09</v>
+        <v>364.88</v>
       </c>
       <c r="F38">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G38">
-        <v>16.90476190476191</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I38">
-        <v>83.0952380952381</v>
+        <v>85.95238095238096</v>
       </c>
       <c r="J38">
         <v>420</v>
@@ -1770,28 +1797,28 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E39">
-        <v>11319.61</v>
+        <v>338.54</v>
       </c>
       <c r="F39">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G39">
-        <v>16.90476190476191</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I39">
-        <v>83.0952380952381</v>
+        <v>85.95238095238096</v>
       </c>
       <c r="J39">
         <v>420</v>
@@ -1802,28 +1829,28 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E40">
-        <v>13644.41</v>
+        <v>333.49</v>
       </c>
       <c r="F40">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G40">
-        <v>15.95238095238095</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I40">
-        <v>84.04761904761905</v>
+        <v>85.95238095238096</v>
       </c>
       <c r="J40">
         <v>420</v>
@@ -1834,28 +1861,28 @@
         <v>48</v>
       </c>
       <c r="B41">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E41">
-        <v>9370.58</v>
+        <v>366.98</v>
       </c>
       <c r="F41">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G41">
-        <v>10.95238095238095</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I41">
-        <v>89.04761904761904</v>
+        <v>85.95238095238096</v>
       </c>
       <c r="J41">
         <v>420</v>
@@ -1866,25 +1893,25 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>389</v>
       </c>
       <c r="E42">
-        <v>8244.1</v>
+        <v>306.86</v>
       </c>
       <c r="F42">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="G42">
-        <v>7.380952380952381</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="I42">
         <v>92.61904761904762</v>
@@ -1898,28 +1925,28 @@
         <v>50</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>409</v>
+      </c>
+      <c r="E43">
+        <v>125.45</v>
+      </c>
+      <c r="F43">
+        <v>5.5</v>
+      </c>
+      <c r="G43">
         <v>0</v>
       </c>
-      <c r="D43">
-        <v>408</v>
-      </c>
-      <c r="E43">
-        <v>5299.6</v>
-      </c>
-      <c r="F43">
-        <v>12</v>
-      </c>
-      <c r="G43">
-        <v>2.857142857142857</v>
-      </c>
       <c r="H43">
-        <v>0</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="I43">
-        <v>97.14285714285714</v>
+        <v>97.38095238095238</v>
       </c>
       <c r="J43">
         <v>420</v>
@@ -2074,127 +2101,127 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
         <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="X2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AA2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2208,19 +2235,19 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
         <v>51</v>
@@ -2229,103 +2256,103 @@
         <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AA3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AB3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AL3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AM3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AN3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2333,16 +2360,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2351,112 +2378,112 @@
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s">
         <v>51</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AD4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AE4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2464,34 +2491,34 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>51</v>
@@ -2500,94 +2527,94 @@
         <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
         <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AF5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2595,55 +2622,55 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
         <v>51</v>
@@ -2652,73 +2679,73 @@
         <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="X6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Y6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Z6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AA6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2726,130 +2753,130 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R7" t="s">
         <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
         <v>51</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="X7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2857,130 +2884,130 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Y8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AA8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AB8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AC8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AD8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2988,130 +3015,130 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
         <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="X9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Z9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AB9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="s">
         <v>51</v>
       </c>
       <c r="AD9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -3122,34 +3149,34 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
@@ -3158,31 +3185,31 @@
         <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="X10" t="s">
         <v>51</v>
@@ -3191,58 +3218,58 @@
         <v>51</v>
       </c>
       <c r="Z10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="s">
         <v>51</v>
       </c>
       <c r="AB10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AC10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AG10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AJ10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -3250,67 +3277,67 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
         <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
         <v>52</v>
@@ -3319,61 +3346,61 @@
         <v>51</v>
       </c>
       <c r="Y11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="s">
         <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AO11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -3381,130 +3408,130 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S12" t="s">
         <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
         <v>51</v>
       </c>
       <c r="W12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Y12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA12" t="s">
         <v>51</v>
       </c>
       <c r="AB12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF12" t="s">
         <v>51</v>
       </c>
       <c r="AG12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AJ12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -3512,130 +3539,130 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="X13" t="s">
         <v>51</v>
       </c>
       <c r="Y13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Z13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AB13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AG13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AI13" t="s">
         <v>51</v>
       </c>
       <c r="AJ13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -3643,10 +3670,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -3655,118 +3682,118 @@
         <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
         <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s">
         <v>54</v>
       </c>
       <c r="Q14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="X14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Z14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AA14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AG14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI14" t="s">
         <v>51</v>
       </c>
       <c r="AJ14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -3774,10 +3801,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
@@ -3789,115 +3816,115 @@
         <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L15" t="s">
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N15" t="s">
         <v>54</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s">
         <v>54</v>
       </c>
       <c r="Q15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Y15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AA15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -3905,130 +3932,130 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
         <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="s">
         <v>52</v>
       </c>
-      <c r="N16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" t="s">
-        <v>56</v>
-      </c>
       <c r="S16" t="s">
         <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W16" t="s">
         <v>51</v>
       </c>
       <c r="X16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Y16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AC16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AE16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AF16" t="s">
         <v>51</v>
       </c>
       <c r="AG16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJ16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -4036,58 +4063,58 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>54</v>
-      </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R17" t="s">
         <v>51</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="T17" t="s">
         <v>51</v>
@@ -4096,70 +4123,70 @@
         <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="X17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Z17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AD17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AG17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -4167,130 +4194,130 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="L18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" t="s">
-        <v>54</v>
-      </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" t="s">
-        <v>54</v>
-      </c>
-      <c r="S18" t="s">
-        <v>54</v>
-      </c>
-      <c r="T18" t="s">
-        <v>54</v>
-      </c>
-      <c r="U18" t="s">
-        <v>51</v>
-      </c>
       <c r="V18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="X18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Y18" t="s">
         <v>54</v>
       </c>
       <c r="Z18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI18" t="s">
         <v>51</v>
       </c>
       <c r="AJ18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -4298,130 +4325,130 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" t="s">
-        <v>54</v>
-      </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
         <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="X19" t="s">
         <v>51</v>
       </c>
       <c r="Y19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Z19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AA19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AC19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AD19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AF19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJ19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -4429,130 +4456,130 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" t="s">
-        <v>52</v>
-      </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AG20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AH20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -4560,130 +4587,130 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="X21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Y21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Z21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AB21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AE21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AG21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -4691,130 +4718,130 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O22" t="s">
         <v>54</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="T22" t="s">
         <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="W22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA22" t="s">
         <v>51</v>
       </c>
       <c r="AB22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AC22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AG22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJ22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4822,46 +4849,46 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N23" t="s">
         <v>55</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P23" t="s">
         <v>53</v>
@@ -4870,82 +4897,82 @@
         <v>54</v>
       </c>
       <c r="R23" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" t="s">
         <v>52</v>
       </c>
-      <c r="S23" t="s">
-        <v>54</v>
-      </c>
-      <c r="T23" t="s">
-        <v>54</v>
-      </c>
-      <c r="U23" t="s">
-        <v>52</v>
-      </c>
-      <c r="V23" t="s">
-        <v>54</v>
-      </c>
       <c r="W23" t="s">
         <v>54</v>
       </c>
       <c r="X23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AA23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AG23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AJ23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AL23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AM23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AN23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -4953,130 +4980,130 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" t="s">
+        <v>58</v>
+      </c>
+      <c r="S24" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" t="s">
+        <v>53</v>
+      </c>
+      <c r="U24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" t="s">
-        <v>52</v>
-      </c>
-      <c r="O24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>54</v>
-      </c>
-      <c r="R24" t="s">
-        <v>54</v>
-      </c>
-      <c r="S24" t="s">
-        <v>54</v>
-      </c>
-      <c r="T24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U24" t="s">
-        <v>51</v>
-      </c>
       <c r="V24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X24" t="s">
         <v>54</v>
       </c>
       <c r="Y24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Z24" t="s">
         <v>54</v>
       </c>
       <c r="AA24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB24" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AC24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE24" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AF24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AJ24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -5084,64 +5111,64 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
         <v>53</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L25" t="s">
         <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N25" t="s">
         <v>53</v>
       </c>
       <c r="O25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
         <v>54</v>
@@ -5153,61 +5180,61 @@
         <v>54</v>
       </c>
       <c r="Y25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Z25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AA25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AB25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AG25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO25" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AP25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -5215,130 +5242,130 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s">
         <v>53</v>
       </c>
       <c r="Q26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
         <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W26" t="s">
         <v>54</v>
       </c>
       <c r="X26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y26" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="Z26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA26" t="s">
         <v>54</v>
       </c>
       <c r="AB26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AE26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AG26" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AH26" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="AI26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AJ26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AK26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -5346,130 +5373,130 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" t="s">
+        <v>53</v>
+      </c>
+      <c r="W27" t="s">
+        <v>58</v>
+      </c>
+      <c r="X27" t="s">
         <v>52</v>
       </c>
-      <c r="K27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>53</v>
-      </c>
-      <c r="R27" t="s">
-        <v>52</v>
-      </c>
-      <c r="S27" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" t="s">
-        <v>52</v>
-      </c>
-      <c r="U27" t="s">
-        <v>54</v>
-      </c>
-      <c r="V27" t="s">
-        <v>52</v>
-      </c>
-      <c r="W27" t="s">
-        <v>54</v>
-      </c>
-      <c r="X27" t="s">
-        <v>53</v>
-      </c>
       <c r="Y27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z27" t="s">
         <v>54</v>
       </c>
       <c r="AA27" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="AB27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC27" t="s">
         <v>51</v>
       </c>
       <c r="AD27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AE27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF27" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="AG27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AJ27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AL27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AM27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AN27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -5477,94 +5504,94 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
         <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AC28" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AD28" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AE28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AF28" t="s">
         <v>51</v>
@@ -5573,34 +5600,34 @@
         <v>51</v>
       </c>
       <c r="AH28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AI28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJ28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AP28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -5608,130 +5635,130 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
         <v>55</v>
       </c>
       <c r="N29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI29" t="s">
         <v>55</v>
       </c>
-      <c r="O29" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>55</v>
-      </c>
-      <c r="R29" t="s">
-        <v>52</v>
-      </c>
-      <c r="S29" t="s">
-        <v>55</v>
-      </c>
-      <c r="T29" t="s">
-        <v>53</v>
-      </c>
-      <c r="U29" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" t="s">
-        <v>53</v>
-      </c>
-      <c r="W29" t="s">
-        <v>53</v>
-      </c>
-      <c r="X29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -5739,106 +5766,106 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q30" t="s">
         <v>53</v>
       </c>
       <c r="R30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AA30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AD30" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AE30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AF30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AH30" t="s">
         <v>51</v>
       </c>
       <c r="AI30" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AJ30" t="s">
         <v>51</v>
@@ -5847,22 +5874,22 @@
         <v>51</v>
       </c>
       <c r="AL30" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AM30" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AN30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AP30" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AQ30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -5870,130 +5897,130 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AA31" t="s">
         <v>53</v>
       </c>
       <c r="AB31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AD31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AF31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AH31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s">
         <v>51</v>
       </c>
       <c r="AJ31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AP31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -6001,112 +6028,112 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R32" t="s">
+        <v>56</v>
+      </c>
+      <c r="S32" t="s">
+        <v>53</v>
+      </c>
+      <c r="T32" t="s">
+        <v>54</v>
+      </c>
+      <c r="U32" t="s">
+        <v>56</v>
+      </c>
+      <c r="V32" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" t="s">
+        <v>54</v>
+      </c>
+      <c r="X32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" t="s">
         <v>52</v>
       </c>
-      <c r="J32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" t="s">
-        <v>55</v>
-      </c>
-      <c r="O32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>55</v>
-      </c>
-      <c r="R32" t="s">
-        <v>55</v>
-      </c>
-      <c r="S32" t="s">
-        <v>54</v>
-      </c>
-      <c r="T32" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32" t="s">
-        <v>54</v>
-      </c>
-      <c r="V32" t="s">
-        <v>54</v>
-      </c>
-      <c r="W32" t="s">
-        <v>52</v>
-      </c>
-      <c r="X32" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>54</v>
-      </c>
       <c r="AE32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF32" t="s">
         <v>54</v>
       </c>
       <c r="AG32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AH32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AI32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AK32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL32" t="s">
         <v>52</v>
@@ -6115,16 +6142,16 @@
         <v>52</v>
       </c>
       <c r="AN32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AP32" t="s">
         <v>51</v>
       </c>
       <c r="AQ32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -6132,130 +6159,130 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AE33" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AG33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AI33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AJ33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO33" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AP33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -6263,112 +6290,112 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AC34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AF34" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AG34" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AH34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AI34" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AJ34" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AL34" t="s">
         <v>51</v>
@@ -6380,13 +6407,13 @@
         <v>51</v>
       </c>
       <c r="AO34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AP34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AQ34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -6394,130 +6421,130 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AA35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AD35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AE35" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AF35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AG35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI35" t="s">
         <v>56</v>
       </c>
       <c r="AJ35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AK35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -6525,106 +6552,106 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AC36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AD36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AE36" t="s">
         <v>53</v>
       </c>
       <c r="AF36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AG36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ36" t="s">
         <v>56</v>
@@ -6645,10 +6672,10 @@
         <v>56</v>
       </c>
       <c r="AP36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AQ36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -6656,130 +6683,130 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AE37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AF37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s">
         <v>56</v>
       </c>
       <c r="AL37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AQ37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -6787,130 +6814,130 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AF38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI38" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AJ38" t="s">
         <v>56</v>
       </c>
       <c r="AK38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AQ38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -6918,130 +6945,130 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AF39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI39" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AJ39" t="s">
         <v>56</v>
       </c>
       <c r="AK39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AQ39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -7049,130 +7076,130 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AF40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI40" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AJ40" t="s">
         <v>56</v>
       </c>
       <c r="AK40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AM40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AN40" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AQ40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -7180,130 +7207,130 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AA41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AC41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI41" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AJ41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AQ41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -7311,106 +7338,106 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AA42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AG42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ42" t="s">
         <v>53</v>
@@ -7428,13 +7455,13 @@
         <v>53</v>
       </c>
       <c r="AO42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AQ42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -7442,130 +7469,130 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AI43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ43" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/results_processing/othello_results.xlsx
+++ b/results_processing/othello_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="81">
   <si>
     <t>wins</t>
   </si>
@@ -53,12 +53,12 @@
     <t>mctsstrategy10000(mapbaseothello_strategy)</t>
   </si>
   <si>
+    <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
+  </si>
+  <si>
     <t>mctsstrategy10000(mobility_strategy)</t>
   </si>
   <si>
-    <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:mapbaseothello_strategy:greedyothello_strategy:evaluateothello_strategy)</t>
-  </si>
-  <si>
     <t>mcts10000</t>
   </si>
   <si>
@@ -74,70 +74,190 @@
     <t>alphabeta12</t>
   </si>
   <si>
+    <t>greedyothello_strategy</t>
+  </si>
+  <si>
     <t>random_strategy</t>
   </si>
   <si>
-    <t>greedyothello_strategy</t>
-  </si>
-  <si>
-    <t>5-0-5</t>
-  </si>
-  <si>
-    <t>4-1-5</t>
-  </si>
-  <si>
-    <t>6-0-4</t>
-  </si>
-  <si>
-    <t>4-0-6</t>
-  </si>
-  <si>
-    <t>2-0-8</t>
-  </si>
-  <si>
-    <t>1-0-9</t>
-  </si>
-  <si>
-    <t>0-0-10</t>
-  </si>
-  <si>
-    <t>6-1-3</t>
-  </si>
-  <si>
-    <t>3-0-7</t>
-  </si>
-  <si>
-    <t>3-1-6</t>
-  </si>
-  <si>
-    <t>7-0-3</t>
-  </si>
-  <si>
-    <t>8-1-1</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>8-0-2</t>
-  </si>
-  <si>
-    <t>7-1-2</t>
-  </si>
-  <si>
-    <t>9-0-1</t>
-  </si>
-  <si>
-    <t>10-0-0</t>
-  </si>
-  <si>
-    <t>2-1-7</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>0-10-0</t>
+    <t>23-2-25</t>
+  </si>
+  <si>
+    <t>24-1-25</t>
+  </si>
+  <si>
+    <t>16-3-31</t>
+  </si>
+  <si>
+    <t>10-1-39</t>
+  </si>
+  <si>
+    <t>21-1-28</t>
+  </si>
+  <si>
+    <t>4-1-45</t>
+  </si>
+  <si>
+    <t>2-0-48</t>
+  </si>
+  <si>
+    <t>0-0-50</t>
+  </si>
+  <si>
+    <t>22-6-22</t>
+  </si>
+  <si>
+    <t>24-2-24</t>
+  </si>
+  <si>
+    <t>22-2-26</t>
+  </si>
+  <si>
+    <t>14-2-34</t>
+  </si>
+  <si>
+    <t>16-0-34</t>
+  </si>
+  <si>
+    <t>3-1-46</t>
+  </si>
+  <si>
+    <t>1-1-48</t>
+  </si>
+  <si>
+    <t>22-1-27</t>
+  </si>
+  <si>
+    <t>19-3-28</t>
+  </si>
+  <si>
+    <t>21-3-26</t>
+  </si>
+  <si>
+    <t>15-0-35</t>
+  </si>
+  <si>
+    <t>20-1-29</t>
+  </si>
+  <si>
+    <t>8-0-42</t>
+  </si>
+  <si>
+    <t>40-0-10</t>
+  </si>
+  <si>
+    <t>36-1-13</t>
+  </si>
+  <si>
+    <t>26-3-21</t>
+  </si>
+  <si>
+    <t>25-0-25</t>
+  </si>
+  <si>
+    <t>28-0-22</t>
+  </si>
+  <si>
+    <t>7-0-43</t>
+  </si>
+  <si>
+    <t>3-0-47</t>
+  </si>
+  <si>
+    <t>5-1-44</t>
+  </si>
+  <si>
+    <t>39-2-9</t>
+  </si>
+  <si>
+    <t>27-4-19</t>
+  </si>
+  <si>
+    <t>27-3-20</t>
+  </si>
+  <si>
+    <t>20-2-28</t>
+  </si>
+  <si>
+    <t>15-3-32</t>
+  </si>
+  <si>
+    <t>6-0-44</t>
+  </si>
+  <si>
+    <t>47-0-3</t>
+  </si>
+  <si>
+    <t>42-0-8</t>
+  </si>
+  <si>
+    <t>42-1-7</t>
+  </si>
+  <si>
+    <t>39-3-8</t>
+  </si>
+  <si>
+    <t>22-3-25</t>
+  </si>
+  <si>
+    <t>13-0-37</t>
+  </si>
+  <si>
+    <t>10-3-37</t>
+  </si>
+  <si>
+    <t>49-1-0</t>
+  </si>
+  <si>
+    <t>44-0-6</t>
+  </si>
+  <si>
+    <t>39-1-10</t>
+  </si>
+  <si>
+    <t>32-4-14</t>
+  </si>
+  <si>
+    <t>48-0-2</t>
+  </si>
+  <si>
+    <t>46-1-3</t>
+  </si>
+  <si>
+    <t>46-2-2</t>
+  </si>
+  <si>
+    <t>50-0-0</t>
+  </si>
+  <si>
+    <t>44-1-5</t>
+  </si>
+  <si>
+    <t>43-0-7</t>
+  </si>
+  <si>
+    <t>25-1-24</t>
+  </si>
+  <si>
+    <t>1-0-49</t>
+  </si>
+  <si>
+    <t>7-1-42</t>
+  </si>
+  <si>
+    <t>21-0-29</t>
+  </si>
+  <si>
+    <t>49-0-1</t>
+  </si>
+  <si>
+    <t>44-2-4</t>
+  </si>
+  <si>
+    <t>24-3-23</t>
+  </si>
+  <si>
+    <t>28-2-20</t>
   </si>
 </sst>
 </file>
@@ -535,31 +655,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>198</v>
+        <v>979</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>1037.22</v>
+        <v>1127.28</v>
       </c>
       <c r="F2">
-        <v>199.5</v>
+        <v>989.5</v>
       </c>
       <c r="G2">
-        <v>82.5</v>
+        <v>81.58333333333333</v>
       </c>
       <c r="H2">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="I2">
-        <v>16.25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="J2">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -567,31 +687,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>192</v>
+        <v>956</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="E3">
-        <v>2351.4</v>
+        <v>2061.46</v>
       </c>
       <c r="F3">
-        <v>193.5</v>
+        <v>968</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>79.66666666666666</v>
       </c>
       <c r="H3">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>18.75</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="J3">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -599,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>191</v>
+        <v>927</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="E4">
-        <v>503</v>
+        <v>504.98</v>
       </c>
       <c r="F4">
-        <v>192.5</v>
+        <v>940.5</v>
       </c>
       <c r="G4">
-        <v>79.58333333333333</v>
+        <v>77.25</v>
       </c>
       <c r="H4">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="I4">
-        <v>19.16666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="J4">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -631,31 +751,31 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>174</v>
+        <v>852</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="E5">
-        <v>1236.28</v>
+        <v>1203.6</v>
       </c>
       <c r="F5">
-        <v>176</v>
+        <v>859</v>
       </c>
       <c r="G5">
-        <v>72.5</v>
+        <v>71</v>
       </c>
       <c r="H5">
-        <v>1.666666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I5">
-        <v>25.83333333333334</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="J5">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -663,31 +783,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>164</v>
+        <v>836</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>341</v>
       </c>
       <c r="E6">
-        <v>969.23</v>
+        <v>1316.78</v>
       </c>
       <c r="F6">
-        <v>166.5</v>
+        <v>847.5</v>
       </c>
       <c r="G6">
-        <v>68.33333333333333</v>
+        <v>69.66666666666667</v>
       </c>
       <c r="H6">
-        <v>2.083333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="I6">
-        <v>29.58333333333333</v>
+        <v>28.41666666666667</v>
       </c>
       <c r="J6">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -695,31 +815,31 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>668</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>509</v>
       </c>
       <c r="E7">
-        <v>456.7</v>
+        <v>524.6900000000001</v>
       </c>
       <c r="F7">
-        <v>136</v>
+        <v>679.5</v>
       </c>
       <c r="G7">
-        <v>56.66666666666666</v>
+        <v>55.66666666666666</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="I7">
-        <v>43.33333333333334</v>
+        <v>42.41666666666667</v>
       </c>
       <c r="J7">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -727,31 +847,31 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>114</v>
+        <v>590</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>594</v>
       </c>
       <c r="E8">
-        <v>468</v>
+        <v>544.83</v>
       </c>
       <c r="F8">
-        <v>114.5</v>
+        <v>598</v>
       </c>
       <c r="G8">
-        <v>47.5</v>
+        <v>49.16666666666666</v>
       </c>
       <c r="H8">
-        <v>0.4166666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I8">
-        <v>52.08333333333334</v>
+        <v>49.5</v>
       </c>
       <c r="J8">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -759,31 +879,31 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>508</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>137</v>
+        <v>676</v>
       </c>
       <c r="E9">
-        <v>468.91</v>
+        <v>506.9</v>
       </c>
       <c r="F9">
-        <v>100.5</v>
+        <v>516</v>
       </c>
       <c r="G9">
-        <v>40.83333333333334</v>
+        <v>42.33333333333334</v>
       </c>
       <c r="H9">
-        <v>2.083333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I9">
-        <v>57.08333333333333</v>
+        <v>56.33333333333334</v>
       </c>
       <c r="J9">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -791,31 +911,31 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>184</v>
+        <v>961</v>
       </c>
       <c r="E10">
-        <v>350.86</v>
+        <v>374.12</v>
       </c>
       <c r="F10">
-        <v>56</v>
+        <v>237.5</v>
       </c>
       <c r="G10">
-        <v>23.33333333333333</v>
+        <v>19.66666666666666</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I10">
-        <v>76.66666666666667</v>
+        <v>80.08333333333333</v>
       </c>
       <c r="J10">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -823,31 +943,31 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>184</v>
+        <v>961</v>
       </c>
       <c r="E11">
-        <v>368.33</v>
+        <v>381.77</v>
       </c>
       <c r="F11">
-        <v>56</v>
+        <v>237.5</v>
       </c>
       <c r="G11">
-        <v>23.33333333333333</v>
+        <v>19.66666666666666</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I11">
-        <v>76.66666666666667</v>
+        <v>80.08333333333333</v>
       </c>
       <c r="J11">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -855,31 +975,31 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>202</v>
+        <v>993</v>
       </c>
       <c r="E12">
-        <v>362.61</v>
+        <v>390.81</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>205.5</v>
       </c>
       <c r="G12">
-        <v>15.83333333333333</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I12">
-        <v>84.16666666666667</v>
+        <v>82.75</v>
       </c>
       <c r="J12">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -887,31 +1007,31 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>219</v>
+        <v>1072</v>
       </c>
       <c r="E13">
-        <v>158.25</v>
+        <v>421.08</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>121.5</v>
       </c>
       <c r="G13">
-        <v>0.4166666666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="H13">
-        <v>8.333333333333332</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="I13">
-        <v>91.25</v>
+        <v>89.33333333333333</v>
       </c>
       <c r="J13">
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -973,37 +1093,37 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1014,37 +1134,37 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1055,37 +1175,37 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1096,37 +1216,37 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1137,37 +1257,37 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1178,37 +1298,37 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1219,37 +1339,37 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1260,37 +1380,37 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1298,40 +1418,40 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1339,40 +1459,40 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1380,40 +1500,40 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1421,40 +1541,40 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/results_processing/othello_results.xlsx
+++ b/results_processing/othello_results.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="result_df" sheetId="1" r:id="rId1"/>
     <sheet name="df_tournament" sheetId="2" r:id="rId2"/>
+    <sheet name="df_agg_by_player" sheetId="3" r:id="rId3"/>
+    <sheet name="df_agg_by_player_winner" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="104">
   <si>
     <t>wins</t>
   </si>
@@ -258,6 +260,75 @@
   </si>
   <si>
     <t>28-2-20</t>
+  </si>
+  <si>
+    <t>win_games_count</t>
+  </si>
+  <si>
+    <t>all_game_count</t>
+  </si>
+  <si>
+    <t>mean_score_result_diff</t>
+  </si>
+  <si>
+    <t>mean_player_moves</t>
+  </si>
+  <si>
+    <t>mean_opponent_moves</t>
+  </si>
+  <si>
+    <t>mean_player_income</t>
+  </si>
+  <si>
+    <t>mean_board_score</t>
+  </si>
+  <si>
+    <t>mean_positive_board_scores</t>
+  </si>
+  <si>
+    <t>mean_negative_board_scores</t>
+  </si>
+  <si>
+    <t>mean_leader_changes</t>
+  </si>
+  <si>
+    <t>mean_board_winning</t>
+  </si>
+  <si>
+    <t>mean_board_draw</t>
+  </si>
+  <si>
+    <t>mean_board_losing</t>
+  </si>
+  <si>
+    <t>player_switching_stats</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[2747.918556020251, 3033.2044904248296, 4218.87695355492]</t>
+  </si>
+  <si>
+    <t>[1832.255692350256, 1543.9720569926685, 1681.4684465347905, 1909.5439203209296, 1533.8434914925992, 1498.9163923087565]</t>
+  </si>
+  <si>
+    <t>is_winner</t>
+  </si>
+  <si>
+    <t>[2695.0744485294117, 2719.050091911765, 4585.875459558823]</t>
+  </si>
+  <si>
+    <t>[2759.488395492353, 3101.986349610947, 4138.5252548967]</t>
+  </si>
+  <si>
+    <t>[1915.3722492697177, 1461.3223953261927, 1476.8229795520936, 2040.6548198636806, 1583.5760467380721, 1522.2515092502433]</t>
+  </si>
+  <si>
+    <t>[1799.2660483091788, 1576.77638647343, 1762.6939130434782, 1857.504927536232, 1514.104231884058, 1489.6544927536231]</t>
   </si>
 </sst>
 </file>
@@ -1580,4 +1651,1881 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>236</v>
+      </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
+      <c r="D2">
+        <v>-15.62916666666667</v>
+      </c>
+      <c r="E2">
+        <v>29.43</v>
+      </c>
+      <c r="F2">
+        <v>0.1325</v>
+      </c>
+      <c r="G2">
+        <v>3.607061954921282</v>
+      </c>
+      <c r="H2">
+        <v>1.477826323650526</v>
+      </c>
+      <c r="I2">
+        <v>11.00037568562627</v>
+      </c>
+      <c r="J2">
+        <v>-12.35927477661192</v>
+      </c>
+      <c r="K2">
+        <v>7.726666666666667</v>
+      </c>
+      <c r="L2">
+        <v>33.2725</v>
+      </c>
+      <c r="M2">
+        <v>3.950833333333333</v>
+      </c>
+      <c r="N2">
+        <v>22.47583333333333</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>236</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>-15.62916666666667</v>
+      </c>
+      <c r="E3">
+        <v>29.43</v>
+      </c>
+      <c r="F3">
+        <v>0.1325</v>
+      </c>
+      <c r="G3">
+        <v>3.607061954921282</v>
+      </c>
+      <c r="H3">
+        <v>1.477826323650526</v>
+      </c>
+      <c r="I3">
+        <v>11.00037568562627</v>
+      </c>
+      <c r="J3">
+        <v>-12.35927477661192</v>
+      </c>
+      <c r="K3">
+        <v>7.726666666666667</v>
+      </c>
+      <c r="L3">
+        <v>33.2725</v>
+      </c>
+      <c r="M3">
+        <v>3.950833333333333</v>
+      </c>
+      <c r="N3">
+        <v>22.47583333333333</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>204</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>-24.095</v>
+      </c>
+      <c r="E4">
+        <v>29.27166666666667</v>
+      </c>
+      <c r="F4">
+        <v>0.1216666666666667</v>
+      </c>
+      <c r="G4">
+        <v>4.0940044411547</v>
+      </c>
+      <c r="H4">
+        <v>-0.8995122630992196</v>
+      </c>
+      <c r="I4">
+        <v>9.333924611973393</v>
+      </c>
+      <c r="J4">
+        <v>-12.60853309874643</v>
+      </c>
+      <c r="K4">
+        <v>9.174166666666666</v>
+      </c>
+      <c r="L4">
+        <v>30.06666666666667</v>
+      </c>
+      <c r="M4">
+        <v>3.209166666666667</v>
+      </c>
+      <c r="N4">
+        <v>26.52416666666667</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>668</v>
+      </c>
+      <c r="C5">
+        <v>1200</v>
+      </c>
+      <c r="D5">
+        <v>7.251666666666667</v>
+      </c>
+      <c r="E5">
+        <v>29.91583333333333</v>
+      </c>
+      <c r="F5">
+        <v>0.4633333333333333</v>
+      </c>
+      <c r="G5">
+        <v>3.62024011810914</v>
+      </c>
+      <c r="H5">
+        <v>3.931554912007129</v>
+      </c>
+      <c r="I5">
+        <v>11.65053737056485</v>
+      </c>
+      <c r="J5">
+        <v>-7.582991803278689</v>
+      </c>
+      <c r="K5">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="L5">
+        <v>33.96166666666667</v>
+      </c>
+      <c r="M5">
+        <v>4.745</v>
+      </c>
+      <c r="N5">
+        <v>21.14666666666667</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>590</v>
+      </c>
+      <c r="C6">
+        <v>1200</v>
+      </c>
+      <c r="D6">
+        <v>1.693333333333333</v>
+      </c>
+      <c r="E6">
+        <v>30.04666666666667</v>
+      </c>
+      <c r="F6">
+        <v>0.5725</v>
+      </c>
+      <c r="G6">
+        <v>3.613268249389838</v>
+      </c>
+      <c r="H6">
+        <v>-0.5339011356045424</v>
+      </c>
+      <c r="I6">
+        <v>9.6389918699187</v>
+      </c>
+      <c r="J6">
+        <v>-9.547471693808287</v>
+      </c>
+      <c r="K6">
+        <v>9.700833333333334</v>
+      </c>
+      <c r="L6">
+        <v>25.625</v>
+      </c>
+      <c r="M6">
+        <v>5.035833333333334</v>
+      </c>
+      <c r="N6">
+        <v>29.21916666666667</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>508</v>
+      </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+      <c r="D7">
+        <v>-6.073333333333333</v>
+      </c>
+      <c r="E7">
+        <v>30.16166666666667</v>
+      </c>
+      <c r="F7">
+        <v>0.6883333333333334</v>
+      </c>
+      <c r="G7">
+        <v>3.599546886224236</v>
+      </c>
+      <c r="H7">
+        <v>-6.54151001197538</v>
+      </c>
+      <c r="I7">
+        <v>6.151930894308943</v>
+      </c>
+      <c r="J7">
+        <v>-11.88074807029069</v>
+      </c>
+      <c r="K7">
+        <v>9.545833333333333</v>
+      </c>
+      <c r="L7">
+        <v>14.76</v>
+      </c>
+      <c r="M7">
+        <v>4.491666666666666</v>
+      </c>
+      <c r="N7">
+        <v>40.59333333333333</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>979</v>
+      </c>
+      <c r="C8">
+        <v>1200</v>
+      </c>
+      <c r="D8">
+        <v>19.00166666666667</v>
+      </c>
+      <c r="E8">
+        <v>30.28666666666667</v>
+      </c>
+      <c r="F8">
+        <v>0.7375</v>
+      </c>
+      <c r="G8">
+        <v>3.716266784063394</v>
+      </c>
+      <c r="H8">
+        <v>2.920723400706164</v>
+      </c>
+      <c r="I8">
+        <v>10.92399100172026</v>
+      </c>
+      <c r="J8">
+        <v>-7.154022663889576</v>
+      </c>
+      <c r="K8">
+        <v>10.55666666666667</v>
+      </c>
+      <c r="L8">
+        <v>31.4875</v>
+      </c>
+      <c r="M8">
+        <v>4.855</v>
+      </c>
+      <c r="N8">
+        <v>23.60583333333333</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>852</v>
+      </c>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>14.29666666666667</v>
+      </c>
+      <c r="E9">
+        <v>30.12083333333333</v>
+      </c>
+      <c r="F9">
+        <v>0.5733333333333334</v>
+      </c>
+      <c r="G9">
+        <v>3.672900816157145</v>
+      </c>
+      <c r="H9">
+        <v>3.56391678024087</v>
+      </c>
+      <c r="I9">
+        <v>11.265552790615</v>
+      </c>
+      <c r="J9">
+        <v>-7.043525653072731</v>
+      </c>
+      <c r="K9">
+        <v>10.42916666666667</v>
+      </c>
+      <c r="L9">
+        <v>32.81833333333334</v>
+      </c>
+      <c r="M9">
+        <v>4.9325</v>
+      </c>
+      <c r="N9">
+        <v>22.17083333333333</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>927</v>
+      </c>
+      <c r="C10">
+        <v>1200</v>
+      </c>
+      <c r="D10">
+        <v>17.13666666666667</v>
+      </c>
+      <c r="E10">
+        <v>30.22333333333333</v>
+      </c>
+      <c r="F10">
+        <v>0.6016666666666667</v>
+      </c>
+      <c r="G10">
+        <v>3.72623249145252</v>
+      </c>
+      <c r="H10">
+        <v>1.927894634471644</v>
+      </c>
+      <c r="I10">
+        <v>10.42490655793408</v>
+      </c>
+      <c r="J10">
+        <v>-7.436944822667445</v>
+      </c>
+      <c r="K10">
+        <v>10.7525</v>
+      </c>
+      <c r="L10">
+        <v>29.43</v>
+      </c>
+      <c r="M10">
+        <v>4.846666666666667</v>
+      </c>
+      <c r="N10">
+        <v>25.705</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>836</v>
+      </c>
+      <c r="C11">
+        <v>1200</v>
+      </c>
+      <c r="D11">
+        <v>10.76083333333333</v>
+      </c>
+      <c r="E11">
+        <v>30.32416666666667</v>
+      </c>
+      <c r="F11">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="G11">
+        <v>3.653878919453681</v>
+      </c>
+      <c r="H11">
+        <v>-0.8843357751490805</v>
+      </c>
+      <c r="I11">
+        <v>9.418053755938736</v>
+      </c>
+      <c r="J11">
+        <v>-9.549453875147881</v>
+      </c>
+      <c r="K11">
+        <v>10.19666666666667</v>
+      </c>
+      <c r="L11">
+        <v>25.0825</v>
+      </c>
+      <c r="M11">
+        <v>4.579166666666667</v>
+      </c>
+      <c r="N11">
+        <v>30.28916666666667</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>956</v>
+      </c>
+      <c r="C12">
+        <v>1200</v>
+      </c>
+      <c r="D12">
+        <v>16.70916666666667</v>
+      </c>
+      <c r="E12">
+        <v>30.29666666666667</v>
+      </c>
+      <c r="F12">
+        <v>0.7116666666666667</v>
+      </c>
+      <c r="G12">
+        <v>3.710969303553746</v>
+      </c>
+      <c r="H12">
+        <v>1.666147665188439</v>
+      </c>
+      <c r="I12">
+        <v>10.65319460726846</v>
+      </c>
+      <c r="J12">
+        <v>-7.695388502842704</v>
+      </c>
+      <c r="K12">
+        <v>10.36916666666667</v>
+      </c>
+      <c r="L12">
+        <v>28.43333333333333</v>
+      </c>
+      <c r="M12">
+        <v>5.1275</v>
+      </c>
+      <c r="N12">
+        <v>26.38333333333333</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <v>1200</v>
+      </c>
+      <c r="D13">
+        <v>-25.42333333333333</v>
+      </c>
+      <c r="E13">
+        <v>29.27583333333333</v>
+      </c>
+      <c r="F13">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="G13">
+        <v>3.282542483846176</v>
+      </c>
+      <c r="H13">
+        <v>-8.225738158414723</v>
+      </c>
+      <c r="I13">
+        <v>5.338247942007618</v>
+      </c>
+      <c r="J13">
+        <v>-13.55049268559173</v>
+      </c>
+      <c r="K13">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="L13">
+        <v>13.565</v>
+      </c>
+      <c r="M13">
+        <v>4.2925</v>
+      </c>
+      <c r="N13">
+        <v>41.18583333333333</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>964</v>
+      </c>
+      <c r="E2">
+        <v>-26.79460580912863</v>
+      </c>
+      <c r="F2">
+        <v>29.4045643153527</v>
+      </c>
+      <c r="G2">
+        <v>0.08298755186721991</v>
+      </c>
+      <c r="H2">
+        <v>3.441579058773724</v>
+      </c>
+      <c r="I2">
+        <v>-0.6967213114754098</v>
+      </c>
+      <c r="J2">
+        <v>9.634088200238379</v>
+      </c>
+      <c r="K2">
+        <v>-13.20348884712803</v>
+      </c>
+      <c r="L2">
+        <v>7.605809128630705</v>
+      </c>
+      <c r="M2">
+        <v>30.46161825726141</v>
+      </c>
+      <c r="N2">
+        <v>4.133817427385893</v>
+      </c>
+      <c r="O2">
+        <v>25.39211618257261</v>
+      </c>
+      <c r="P2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>236</v>
+      </c>
+      <c r="D3">
+        <v>236</v>
+      </c>
+      <c r="E3">
+        <v>29.97881355932203</v>
+      </c>
+      <c r="F3">
+        <v>29.53389830508475</v>
+      </c>
+      <c r="G3">
+        <v>0.3347457627118644</v>
+      </c>
+      <c r="H3">
+        <v>4.280057388809182</v>
+      </c>
+      <c r="I3">
+        <v>10.58286872782565</v>
+      </c>
+      <c r="J3">
+        <v>14.79899640219655</v>
+      </c>
+      <c r="K3">
+        <v>-4.070196550340954</v>
+      </c>
+      <c r="L3">
+        <v>8.220338983050848</v>
+      </c>
+      <c r="M3">
+        <v>44.75423728813559</v>
+      </c>
+      <c r="N3">
+        <v>3.203389830508474</v>
+      </c>
+      <c r="O3">
+        <v>10.5635593220339</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>964</v>
+      </c>
+      <c r="E4">
+        <v>-26.79460580912863</v>
+      </c>
+      <c r="F4">
+        <v>29.4045643153527</v>
+      </c>
+      <c r="G4">
+        <v>0.08298755186721991</v>
+      </c>
+      <c r="H4">
+        <v>3.441579058773724</v>
+      </c>
+      <c r="I4">
+        <v>-0.6967213114754098</v>
+      </c>
+      <c r="J4">
+        <v>9.634088200238379</v>
+      </c>
+      <c r="K4">
+        <v>-13.20348884712803</v>
+      </c>
+      <c r="L4">
+        <v>7.605809128630705</v>
+      </c>
+      <c r="M4">
+        <v>30.46161825726141</v>
+      </c>
+      <c r="N4">
+        <v>4.133817427385893</v>
+      </c>
+      <c r="O4">
+        <v>25.39211618257261</v>
+      </c>
+      <c r="P4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>236</v>
+      </c>
+      <c r="D5">
+        <v>236</v>
+      </c>
+      <c r="E5">
+        <v>29.97881355932203</v>
+      </c>
+      <c r="F5">
+        <v>29.53389830508475</v>
+      </c>
+      <c r="G5">
+        <v>0.3347457627118644</v>
+      </c>
+      <c r="H5">
+        <v>4.280057388809182</v>
+      </c>
+      <c r="I5">
+        <v>10.58286872782565</v>
+      </c>
+      <c r="J5">
+        <v>14.79899640219655</v>
+      </c>
+      <c r="K5">
+        <v>-4.070196550340954</v>
+      </c>
+      <c r="L5">
+        <v>8.220338983050848</v>
+      </c>
+      <c r="M5">
+        <v>44.75423728813559</v>
+      </c>
+      <c r="N5">
+        <v>3.203389830508474</v>
+      </c>
+      <c r="O5">
+        <v>10.5635593220339</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>996</v>
+      </c>
+      <c r="E6">
+        <v>-31.52409638554217</v>
+      </c>
+      <c r="F6">
+        <v>29.11244979919679</v>
+      </c>
+      <c r="G6">
+        <v>0.04016064257028112</v>
+      </c>
+      <c r="H6">
+        <v>3.962132707959718</v>
+      </c>
+      <c r="I6">
+        <v>-2.001474185010219</v>
+      </c>
+      <c r="J6">
+        <v>9.028878723329958</v>
+      </c>
+      <c r="K6">
+        <v>-13.60624820040311</v>
+      </c>
+      <c r="L6">
+        <v>8.861445783132529</v>
+      </c>
+      <c r="M6">
+        <v>28.75200803212851</v>
+      </c>
+      <c r="N6">
+        <v>3.286144578313253</v>
+      </c>
+      <c r="O6">
+        <v>27.89558232931727</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>204</v>
+      </c>
+      <c r="D7">
+        <v>204</v>
+      </c>
+      <c r="E7">
+        <v>12.17647058823529</v>
+      </c>
+      <c r="F7">
+        <v>30.04901960784314</v>
+      </c>
+      <c r="G7">
+        <v>0.5196078431372549</v>
+      </c>
+      <c r="H7">
+        <v>4.717781402936378</v>
+      </c>
+      <c r="I7">
+        <v>4.552212829438091</v>
+      </c>
+      <c r="J7">
+        <v>10.50759102512428</v>
+      </c>
+      <c r="K7">
+        <v>-5.755500618046971</v>
+      </c>
+      <c r="L7">
+        <v>10.70098039215686</v>
+      </c>
+      <c r="M7">
+        <v>36.48529411764706</v>
+      </c>
+      <c r="N7">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="O7">
+        <v>19.82843137254902</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>532</v>
+      </c>
+      <c r="E8">
+        <v>-20.20488721804511</v>
+      </c>
+      <c r="F8">
+        <v>29.45112781954887</v>
+      </c>
+      <c r="G8">
+        <v>0.02819548872180451</v>
+      </c>
+      <c r="H8">
+        <v>3.437898902221088</v>
+      </c>
+      <c r="I8">
+        <v>0.8721990660942054</v>
+      </c>
+      <c r="J8">
+        <v>8.334942084942085</v>
+      </c>
+      <c r="K8">
+        <v>-8.784156050955414</v>
+      </c>
+      <c r="L8">
+        <v>11.34022556390977</v>
+      </c>
+      <c r="M8">
+        <v>31.15789473684211</v>
+      </c>
+      <c r="N8">
+        <v>5.212406015037594</v>
+      </c>
+      <c r="O8">
+        <v>23.60902255639098</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>668</v>
+      </c>
+      <c r="D9">
+        <v>668</v>
+      </c>
+      <c r="E9">
+        <v>29.11826347305389</v>
+      </c>
+      <c r="F9">
+        <v>30.28592814371257</v>
+      </c>
+      <c r="G9">
+        <v>0.8098802395209581</v>
+      </c>
+      <c r="H9">
+        <v>3.761455192526321</v>
+      </c>
+      <c r="I9">
+        <v>6.377276713015157</v>
+      </c>
+      <c r="J9">
+        <v>13.92364959880883</v>
+      </c>
+      <c r="K9">
+        <v>-6.405820848938826</v>
+      </c>
+      <c r="L9">
+        <v>8.25</v>
+      </c>
+      <c r="M9">
+        <v>36.19461077844311</v>
+      </c>
+      <c r="N9">
+        <v>4.372754491017964</v>
+      </c>
+      <c r="O9">
+        <v>19.18562874251497</v>
+      </c>
+      <c r="P9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>610</v>
+      </c>
+      <c r="E10">
+        <v>-23.30327868852459</v>
+      </c>
+      <c r="F10">
+        <v>29.61967213114754</v>
+      </c>
+      <c r="G10">
+        <v>0.07049180327868852</v>
+      </c>
+      <c r="H10">
+        <v>3.37148549922515</v>
+      </c>
+      <c r="I10">
+        <v>-3.72057175653885</v>
+      </c>
+      <c r="J10">
+        <v>6.285007727975271</v>
+      </c>
+      <c r="K10">
+        <v>-10.71601044695215</v>
+      </c>
+      <c r="L10">
+        <v>10.37049180327869</v>
+      </c>
+      <c r="M10">
+        <v>21.21311475409836</v>
+      </c>
+      <c r="N10">
+        <v>5.501639344262295</v>
+      </c>
+      <c r="O10">
+        <v>33.2672131147541</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>590</v>
+      </c>
+      <c r="D11">
+        <v>590</v>
+      </c>
+      <c r="E11">
+        <v>27.53728813559322</v>
+      </c>
+      <c r="F11">
+        <v>30.48813559322034</v>
+      </c>
+      <c r="G11">
+        <v>1.091525423728813</v>
+      </c>
+      <c r="H11">
+        <v>3.856126306426507</v>
+      </c>
+      <c r="I11">
+        <v>2.772223324921315</v>
+      </c>
+      <c r="J11">
+        <v>12.07585626052779</v>
+      </c>
+      <c r="K11">
+        <v>-7.941976980365606</v>
+      </c>
+      <c r="L11">
+        <v>9.008474576271187</v>
+      </c>
+      <c r="M11">
+        <v>30.1864406779661</v>
+      </c>
+      <c r="N11">
+        <v>4.554237288135593</v>
+      </c>
+      <c r="O11">
+        <v>25.03389830508475</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>692</v>
+      </c>
+      <c r="E12">
+        <v>-24.59393063583815</v>
+      </c>
+      <c r="F12">
+        <v>29.66040462427746</v>
+      </c>
+      <c r="G12">
+        <v>0.1213872832369942</v>
+      </c>
+      <c r="H12">
+        <v>3.349086479902558</v>
+      </c>
+      <c r="I12">
+        <v>-6.823418410547962</v>
+      </c>
+      <c r="J12">
+        <v>4.747844608986712</v>
+      </c>
+      <c r="K12">
+        <v>-11.70344140360867</v>
+      </c>
+      <c r="L12">
+        <v>9.84971098265896</v>
+      </c>
+      <c r="M12">
+        <v>14.2471098265896</v>
+      </c>
+      <c r="N12">
+        <v>4.880057803468208</v>
+      </c>
+      <c r="O12">
+        <v>40.60549132947977</v>
+      </c>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>508</v>
+      </c>
+      <c r="D13">
+        <v>508</v>
+      </c>
+      <c r="E13">
+        <v>19.15551181102362</v>
+      </c>
+      <c r="F13">
+        <v>30.84448818897638</v>
+      </c>
+      <c r="G13">
+        <v>1.460629921259843</v>
+      </c>
+      <c r="H13">
+        <v>3.927627800114876</v>
+      </c>
+      <c r="I13">
+        <v>-6.159191574526723</v>
+      </c>
+      <c r="J13">
+        <v>7.914682287024068</v>
+      </c>
+      <c r="K13">
+        <v>-12.12244699946636</v>
+      </c>
+      <c r="L13">
+        <v>9.131889763779528</v>
+      </c>
+      <c r="M13">
+        <v>15.45866141732284</v>
+      </c>
+      <c r="N13">
+        <v>3.96259842519685</v>
+      </c>
+      <c r="O13">
+        <v>40.5767716535433</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>221</v>
+      </c>
+      <c r="E14">
+        <v>-15.22171945701357</v>
+      </c>
+      <c r="F14">
+        <v>29.53846153846154</v>
+      </c>
+      <c r="G14">
+        <v>0.02714932126696833</v>
+      </c>
+      <c r="H14">
+        <v>3.430912990196079</v>
+      </c>
+      <c r="I14">
+        <v>1.334615964991701</v>
+      </c>
+      <c r="J14">
+        <v>7.99971444888635</v>
+      </c>
+      <c r="K14">
+        <v>-7.478252389311488</v>
+      </c>
+      <c r="L14">
+        <v>12.21266968325792</v>
+      </c>
+      <c r="M14">
+        <v>31.69230769230769</v>
+      </c>
+      <c r="N14">
+        <v>5.081447963800905</v>
+      </c>
+      <c r="O14">
+        <v>23.19909502262443</v>
+      </c>
+      <c r="P14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>979</v>
+      </c>
+      <c r="D15">
+        <v>979</v>
+      </c>
+      <c r="E15">
+        <v>26.72727272727273</v>
+      </c>
+      <c r="F15">
+        <v>30.45556690500511</v>
+      </c>
+      <c r="G15">
+        <v>0.8978549540347294</v>
+      </c>
+      <c r="H15">
+        <v>3.778742956801717</v>
+      </c>
+      <c r="I15">
+        <v>3.278951673369232</v>
+      </c>
+      <c r="J15">
+        <v>11.58938955849388</v>
+      </c>
+      <c r="K15">
+        <v>-7.082370689655172</v>
+      </c>
+      <c r="L15">
+        <v>10.18283963227783</v>
+      </c>
+      <c r="M15">
+        <v>31.44126659856997</v>
+      </c>
+      <c r="N15">
+        <v>4.80388151174668</v>
+      </c>
+      <c r="O15">
+        <v>23.6976506639428</v>
+      </c>
+      <c r="P15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>348</v>
+      </c>
+      <c r="E16">
+        <v>-17.04310344827586</v>
+      </c>
+      <c r="F16">
+        <v>29.51149425287356</v>
+      </c>
+      <c r="G16">
+        <v>0.04022988505747126</v>
+      </c>
+      <c r="H16">
+        <v>3.417916260954236</v>
+      </c>
+      <c r="I16">
+        <v>1.042870144177803</v>
+      </c>
+      <c r="J16">
+        <v>8.073519782995042</v>
+      </c>
+      <c r="K16">
+        <v>-7.702828499820981</v>
+      </c>
+      <c r="L16">
+        <v>12.02011494252874</v>
+      </c>
+      <c r="M16">
+        <v>30.72126436781609</v>
+      </c>
+      <c r="N16">
+        <v>5.192528735632184</v>
+      </c>
+      <c r="O16">
+        <v>24.07758620689655</v>
+      </c>
+      <c r="P16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>852</v>
+      </c>
+      <c r="D17">
+        <v>852</v>
+      </c>
+      <c r="E17">
+        <v>27.09741784037559</v>
+      </c>
+      <c r="F17">
+        <v>30.36971830985916</v>
+      </c>
+      <c r="G17">
+        <v>0.7910798122065728</v>
+      </c>
+      <c r="H17">
+        <v>3.774106280193237</v>
+      </c>
+      <c r="I17">
+        <v>4.595328146740089</v>
+      </c>
+      <c r="J17">
+        <v>12.45498588407515</v>
+      </c>
+      <c r="K17">
+        <v>-6.740425765390102</v>
+      </c>
+      <c r="L17">
+        <v>9.779342723004694</v>
+      </c>
+      <c r="M17">
+        <v>33.67488262910798</v>
+      </c>
+      <c r="N17">
+        <v>4.826291079812207</v>
+      </c>
+      <c r="O17">
+        <v>21.39201877934272</v>
+      </c>
+      <c r="P17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>273</v>
+      </c>
+      <c r="E18">
+        <v>-13.42490842490843</v>
+      </c>
+      <c r="F18">
+        <v>29.58974358974359</v>
+      </c>
+      <c r="G18">
+        <v>0.06593406593406594</v>
+      </c>
+      <c r="H18">
+        <v>3.434265907402823</v>
+      </c>
+      <c r="I18">
+        <v>1.439946266104903</v>
+      </c>
+      <c r="J18">
+        <v>8.011654180045189</v>
+      </c>
+      <c r="K18">
+        <v>-6.832267124356374</v>
+      </c>
+      <c r="L18">
+        <v>12.72527472527472</v>
+      </c>
+      <c r="M18">
+        <v>30.8021978021978</v>
+      </c>
+      <c r="N18">
+        <v>5.710622710622711</v>
+      </c>
+      <c r="O18">
+        <v>23.47619047619047</v>
+      </c>
+      <c r="P18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>927</v>
+      </c>
+      <c r="D19">
+        <v>927</v>
+      </c>
+      <c r="E19">
+        <v>26.13700107874865</v>
+      </c>
+      <c r="F19">
+        <v>30.40992448759439</v>
+      </c>
+      <c r="G19">
+        <v>0.7594390507011867</v>
+      </c>
+      <c r="H19">
+        <v>3.809897126640652</v>
+      </c>
+      <c r="I19">
+        <v>2.071617416952932</v>
+      </c>
+      <c r="J19">
+        <v>11.17909837588732</v>
+      </c>
+      <c r="K19">
+        <v>-7.595531366370667</v>
+      </c>
+      <c r="L19">
+        <v>10.1715210355987</v>
+      </c>
+      <c r="M19">
+        <v>29.02588996763754</v>
+      </c>
+      <c r="N19">
+        <v>4.592233009708738</v>
+      </c>
+      <c r="O19">
+        <v>26.361380798274</v>
+      </c>
+      <c r="P19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>364</v>
+      </c>
+      <c r="E20">
+        <v>-18.98901098901099</v>
+      </c>
+      <c r="F20">
+        <v>29.76373626373626</v>
+      </c>
+      <c r="G20">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="H20">
+        <v>3.38609931696511</v>
+      </c>
+      <c r="I20">
+        <v>-2.044688644688645</v>
+      </c>
+      <c r="J20">
+        <v>6.667537841663944</v>
+      </c>
+      <c r="K20">
+        <v>-9.712346358466336</v>
+      </c>
+      <c r="L20">
+        <v>12.28021978021978</v>
+      </c>
+      <c r="M20">
+        <v>25.22802197802198</v>
+      </c>
+      <c r="N20">
+        <v>4.821428571428571</v>
+      </c>
+      <c r="O20">
+        <v>29.95054945054945</v>
+      </c>
+      <c r="P20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>836</v>
+      </c>
+      <c r="D21">
+        <v>836</v>
+      </c>
+      <c r="E21">
+        <v>23.71411483253588</v>
+      </c>
+      <c r="F21">
+        <v>30.56818181818182</v>
+      </c>
+      <c r="G21">
+        <v>1.129186602870813</v>
+      </c>
+      <c r="H21">
+        <v>3.767403639209548</v>
+      </c>
+      <c r="I21">
+        <v>-0.3785153988942336</v>
+      </c>
+      <c r="J21">
+        <v>10.62564543889845</v>
+      </c>
+      <c r="K21">
+        <v>-9.479662016113185</v>
+      </c>
+      <c r="L21">
+        <v>9.289473684210526</v>
+      </c>
+      <c r="M21">
+        <v>25.01913875598086</v>
+      </c>
+      <c r="N21">
+        <v>4.473684210526316</v>
+      </c>
+      <c r="O21">
+        <v>30.4366028708134</v>
+      </c>
+      <c r="P21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>244</v>
+      </c>
+      <c r="E22">
+        <v>-17.15573770491803</v>
+      </c>
+      <c r="F22">
+        <v>29.74180327868853</v>
+      </c>
+      <c r="G22">
+        <v>0.0860655737704918</v>
+      </c>
+      <c r="H22">
+        <v>3.418216894033347</v>
+      </c>
+      <c r="I22">
+        <v>-1.614375512435092</v>
+      </c>
+      <c r="J22">
+        <v>7.063428476047404</v>
+      </c>
+      <c r="K22">
+        <v>-8.963572108196276</v>
+      </c>
+      <c r="L22">
+        <v>11.88114754098361</v>
+      </c>
+      <c r="M22">
+        <v>24.55327868852459</v>
+      </c>
+      <c r="N22">
+        <v>5.278688524590164</v>
+      </c>
+      <c r="O22">
+        <v>30.1516393442623</v>
+      </c>
+      <c r="P22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>956</v>
+      </c>
+      <c r="D23">
+        <v>956</v>
+      </c>
+      <c r="E23">
+        <v>25.35251046025105</v>
+      </c>
+      <c r="F23">
+        <v>30.43828451882845</v>
+      </c>
+      <c r="G23">
+        <v>0.8713389121338913</v>
+      </c>
+      <c r="H23">
+        <v>3.783978830887659</v>
+      </c>
+      <c r="I23">
+        <v>2.504127615756497</v>
+      </c>
+      <c r="J23">
+        <v>11.41775391944257</v>
+      </c>
+      <c r="K23">
+        <v>-7.311484178907953</v>
+      </c>
+      <c r="L23">
+        <v>9.98326359832636</v>
+      </c>
+      <c r="M23">
+        <v>29.42364016736402</v>
+      </c>
+      <c r="N23">
+        <v>5.088912133891213</v>
+      </c>
+      <c r="O23">
+        <v>25.42154811715481</v>
+      </c>
+      <c r="P23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1085</v>
+      </c>
+      <c r="E24">
+        <v>-29.50875576036866</v>
+      </c>
+      <c r="F24">
+        <v>29.16221198156682</v>
+      </c>
+      <c r="G24">
+        <v>0.128110599078341</v>
+      </c>
+      <c r="H24">
+        <v>3.215732751809361</v>
+      </c>
+      <c r="I24">
+        <v>-8.626084781011055</v>
+      </c>
+      <c r="J24">
+        <v>5.006341154090045</v>
+      </c>
+      <c r="K24">
+        <v>-13.8170139120016</v>
+      </c>
+      <c r="L24">
+        <v>8.552995391705069</v>
+      </c>
+      <c r="M24">
+        <v>13.08110599078341</v>
+      </c>
+      <c r="N24">
+        <v>4.323502304147466</v>
+      </c>
+      <c r="O24">
+        <v>41.53824884792627</v>
+      </c>
+      <c r="P24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>115</v>
+      </c>
+      <c r="E25">
+        <v>13.12173913043478</v>
+      </c>
+      <c r="F25">
+        <v>30.34782608695652</v>
+      </c>
+      <c r="G25">
+        <v>0.7043478260869566</v>
+      </c>
+      <c r="H25">
+        <v>3.888252148997135</v>
+      </c>
+      <c r="I25">
+        <v>-4.514567328598347</v>
+      </c>
+      <c r="J25">
+        <v>7.597601918465227</v>
+      </c>
+      <c r="K25">
+        <v>-10.79168580615526</v>
+      </c>
+      <c r="L25">
+        <v>10.19130434782609</v>
+      </c>
+      <c r="M25">
+        <v>18.1304347826087</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>37.86086956521739</v>
+      </c>
+      <c r="P25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results_processing/othello_results.xlsx
+++ b/results_processing/othello_results.xlsx
@@ -265,7 +265,7 @@
     <t>win_games_count</t>
   </si>
   <si>
-    <t>all_game_count</t>
+    <t>all_games_count</t>
   </si>
   <si>
     <t>mean_score_result_diff</t>
@@ -283,22 +283,22 @@
     <t>mean_board_score</t>
   </si>
   <si>
-    <t>mean_positive_board_scores</t>
-  </si>
-  <si>
-    <t>mean_negative_board_scores</t>
-  </si>
-  <si>
-    <t>mean_leader_changes</t>
-  </si>
-  <si>
-    <t>mean_board_winning</t>
-  </si>
-  <si>
-    <t>mean_board_draw</t>
-  </si>
-  <si>
-    <t>mean_board_losing</t>
+    <t>mean_winning_board_scores</t>
+  </si>
+  <si>
+    <t>mean_losing_board_scores</t>
+  </si>
+  <si>
+    <t>mean_leader_changes_per_game</t>
+  </si>
+  <si>
+    <t>mean_board_winning_states_per_game</t>
+  </si>
+  <si>
+    <t>mean_board_draw_states_per_game</t>
+  </si>
+  <si>
+    <t>mean_board_losing_states_per_game</t>
   </si>
   <si>
     <t>player_switching_stats</t>
